--- a/Src/Assets/Common/Tables/Tables/Levels.xlsx
+++ b/Src/Assets/Common/Tables/Tables/Levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CCA\Src\Assets\Common\Tables\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\CLAP开发\关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1747897-5F1E-4608-9121-BAA5F323442B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB90A49-B377-4ED4-94D1-9C149DA2EB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI" sheetId="5" r:id="rId1"/>
@@ -18,10 +18,21 @@
     <sheet name="Character" sheetId="2" r:id="rId3"/>
     <sheet name="Emotion" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -31,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="550">
   <si>
     <t>Key</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -80,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[bullet,shoot,block]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[0,0,0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -440,1386 +447,1467 @@
     <t>合金铁骑</t>
   </si>
   <si>
+    <t>诡雷兵</t>
+  </si>
+  <si>
+    <t>Void Devotee</t>
+  </si>
+  <si>
+    <t>虚空拥趸</t>
+  </si>
+  <si>
+    <t>Voidwolf</t>
+  </si>
+  <si>
+    <t>虚空</t>
+  </si>
+  <si>
+    <t>虚空兽</t>
+  </si>
+  <si>
+    <t>Chronos Hand</t>
+  </si>
+  <si>
+    <t>Mnemosyne Hand</t>
+  </si>
+  <si>
+    <t>时间之手</t>
+  </si>
+  <si>
+    <t>记忆之手</t>
+  </si>
+  <si>
+    <t>Weasel Bandit</t>
+  </si>
+  <si>
+    <t>黄鼠狼强盗</t>
+  </si>
+  <si>
+    <t>Weasel Lackey</t>
+  </si>
+  <si>
+    <t>黄鼠狼小弟</t>
+  </si>
+  <si>
+    <t>Butaro</t>
+  </si>
+  <si>
+    <t>肥之郎</t>
+  </si>
+  <si>
+    <t>Huntaro</t>
+  </si>
+  <si>
+    <t>狩之郎</t>
+  </si>
+  <si>
+    <t>One-Eye</t>
+  </si>
+  <si>
+    <t>一只眼</t>
+  </si>
+  <si>
+    <t>裁决使</t>
+  </si>
+  <si>
+    <t>审判官</t>
+  </si>
+  <si>
+    <t>Prism Dancer</t>
+  </si>
+  <si>
+    <t>棱镜舞者</t>
+  </si>
+  <si>
+    <t>勇者</t>
+  </si>
+  <si>
+    <t>畏惧之心</t>
+  </si>
+  <si>
+    <t>不屈之意</t>
+  </si>
+  <si>
+    <t>古老勇者</t>
+  </si>
+  <si>
+    <t>誓约之剑</t>
+  </si>
+  <si>
+    <t>手·幻象</t>
+  </si>
+  <si>
+    <t>左戍卫</t>
+  </si>
+  <si>
+    <t>右戍卫</t>
+  </si>
+  <si>
+    <t>震殿威</t>
+  </si>
+  <si>
+    <t>虚空之笼</t>
+  </si>
+  <si>
+    <t>虚空之锁</t>
+  </si>
+  <si>
+    <t>“心魔”</t>
+  </si>
+  <si>
+    <t>“心魔”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孩提</t>
+  </si>
+  <si>
+    <t>拔刀斋</t>
+  </si>
+  <si>
+    <t>尘封之心</t>
+  </si>
+  <si>
+    <t>手·真</t>
+  </si>
+  <si>
+    <t>手·邪</t>
+  </si>
+  <si>
+    <t>The Brave</t>
+  </si>
+  <si>
+    <t>Gipsy Divine</t>
+  </si>
+  <si>
+    <t>Hand-Mirage</t>
+  </si>
+  <si>
+    <t>Athena</t>
+  </si>
+  <si>
+    <t>神圣流浪者</t>
+  </si>
+  <si>
+    <t>圣殿左亲卫</t>
+  </si>
+  <si>
+    <t>Left Warden</t>
+  </si>
+  <si>
+    <t>Right Warden</t>
+  </si>
+  <si>
+    <t>Pillarbearer</t>
+  </si>
+  <si>
+    <t>Voidlock</t>
+  </si>
+  <si>
+    <t>Voidhold</t>
+  </si>
+  <si>
+    <t>Unbroken Will</t>
+  </si>
+  <si>
+    <t>Heart of Fear</t>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
+  <si>
+    <t>Cursed Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voidwarden of Abyss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voidwarden of Pale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow Within</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skunk Ninja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oathblade</t>
+  </si>
+  <si>
+    <t>Ancient Brave</t>
+  </si>
+  <si>
+    <t>Right Vindicator</t>
+  </si>
+  <si>
+    <t>Left Vindicator</t>
+  </si>
+  <si>
+    <t>Megathon</t>
+  </si>
+  <si>
+    <t>#Mech-Grunt</t>
+  </si>
+  <si>
+    <t>#Bog Monkey</t>
+  </si>
+  <si>
+    <t>#Skunk Chieftain</t>
+  </si>
+  <si>
+    <t>#Shadow Within</t>
+  </si>
+  <si>
+    <t>#Deathshead Grin</t>
+  </si>
+  <si>
+    <t>#Rubber Grunt</t>
+  </si>
+  <si>
+    <t>#Booby-Trapper</t>
+  </si>
+  <si>
+    <t>Arbiter of Divine</t>
+  </si>
+  <si>
+    <t>Judge of Divine</t>
+  </si>
+  <si>
+    <t>#Arbiter of Divine</t>
+  </si>
+  <si>
+    <t>#Judge of Divine</t>
+  </si>
+  <si>
+    <t>#Alloy Cavalier</t>
+  </si>
+  <si>
+    <t>#Butaro</t>
+  </si>
+  <si>
+    <t>#Huntaro</t>
+  </si>
+  <si>
+    <t>#Slasher</t>
+  </si>
+  <si>
+    <t>#Infancy</t>
+  </si>
+  <si>
+    <t>#The Brave</t>
+  </si>
+  <si>
+    <t>#Dust-Sealed Heart</t>
+  </si>
+  <si>
+    <t>#Void</t>
+  </si>
+  <si>
+    <t>#Hand-Ideal</t>
+  </si>
+  <si>
+    <t>#Mech-Grunt#</t>
+  </si>
+  <si>
+    <t>#Bog Monkey#</t>
+  </si>
+  <si>
+    <t>#Skunk Chieftain#</t>
+  </si>
+  <si>
+    <t>#Shadow Within#</t>
+  </si>
+  <si>
+    <t>#Deathshead Grin#</t>
+  </si>
+  <si>
+    <t>#Rubber Grunt#</t>
+  </si>
+  <si>
+    <t>#Booby-Trapper#</t>
+  </si>
+  <si>
+    <t>#Arbiter of Divine#</t>
+  </si>
+  <si>
+    <t>#Judge of Divine#</t>
+  </si>
+  <si>
+    <t>#Alloy Cavalier#</t>
+  </si>
+  <si>
+    <t>#Butaro#</t>
+  </si>
+  <si>
+    <t>#Huntaro#</t>
+  </si>
+  <si>
+    <t>#Infancy#</t>
+  </si>
+  <si>
+    <t>#The Brave#</t>
+  </si>
+  <si>
+    <t>#Slasher#</t>
+  </si>
+  <si>
+    <t>#Dust-Sealed Heart#</t>
+  </si>
+  <si>
+    <t>#Void#</t>
+  </si>
+  <si>
+    <t>#Hand-Sin#</t>
+  </si>
+  <si>
+    <t>冷漠的</t>
+  </si>
+  <si>
+    <t>狡诈的</t>
+  </si>
+  <si>
+    <t>友好的</t>
+  </si>
+  <si>
+    <t>怯懦的</t>
+  </si>
+  <si>
+    <t>好战的</t>
+  </si>
+  <si>
+    <t>傲慢的</t>
+  </si>
+  <si>
+    <t>Sly</t>
+  </si>
+  <si>
+    <t>Sly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friendly</t>
+  </si>
+  <si>
+    <t>Cowardly</t>
+  </si>
+  <si>
+    <t>Bellicose</t>
+  </si>
+  <si>
+    <t>Arrogant</t>
+  </si>
+  <si>
+    <t>Initial Honesty Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emotion Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honesty Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.9,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,0.8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.3,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.1,0.95]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.7,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peaceful</t>
+  </si>
+  <si>
+    <t>Afraid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平和的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐惧的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,6,3,4,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,3,7,3,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friendly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bellicose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>树灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arborfolk</t>
+  </si>
+  <si>
+    <t>Cowardly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleric</t>
+  </si>
+  <si>
+    <t>[0,0,0]</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>3-12</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>4-3A</t>
+  </si>
+  <si>
+    <t>4-4A</t>
+  </si>
+  <si>
+    <t>4-5A</t>
+  </si>
+  <si>
+    <t>4-6A</t>
+  </si>
+  <si>
+    <t>4-7A</t>
+  </si>
+  <si>
+    <t>4-8A</t>
+  </si>
+  <si>
+    <t>4-3B</t>
+  </si>
+  <si>
+    <t>4-4B</t>
+  </si>
+  <si>
+    <t>4-5B</t>
+  </si>
+  <si>
+    <t>4-6B</t>
+  </si>
+  <si>
+    <t>4-7B</t>
+  </si>
+  <si>
+    <t>4-8B</t>
+  </si>
+  <si>
+    <t>Mech-Grunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mech-Scout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mech-Minion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mech-Guardian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kensei</t>
+  </si>
+  <si>
+    <t>宗师</t>
+  </si>
+  <si>
+    <t>Ashes of Glory</t>
+  </si>
+  <si>
+    <t>“剑心”</t>
+  </si>
+  <si>
+    <t>使徒</t>
+  </si>
+  <si>
+    <t>棱镜迷宫</t>
+  </si>
+  <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>镜中万象</t>
+  </si>
+  <si>
+    <t>In my heart</t>
+  </si>
+  <si>
+    <t>童话勇者</t>
+  </si>
+  <si>
+    <t>Retreating Figure</t>
+  </si>
+  <si>
+    <t>On The Way</t>
+  </si>
+  <si>
+    <t>无名书</t>
+  </si>
+  <si>
+    <t>十字路口</t>
+  </si>
+  <si>
+    <t>Deception</t>
+  </si>
+  <si>
+    <t>Anger</t>
+  </si>
+  <si>
+    <t>Regret</t>
+  </si>
+  <si>
+    <t>The True Heart</t>
+  </si>
+  <si>
+    <t>The Malignant Masquerade</t>
+  </si>
+  <si>
+    <t>Bog Monkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swordsman's Spirit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blackman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skunk Chieftain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Novice Assassin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furious Blade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deathshead Grin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubber Grunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubber Tank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanguard Horseman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavy Gunner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alloy Cavalier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Booby-Trapper</t>
-  </si>
-  <si>
-    <t>诡雷兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“虚界”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Void Devotee</t>
-  </si>
-  <si>
-    <t>虚空拥趸</t>
-  </si>
-  <si>
-    <t>Voidwolf</t>
-  </si>
-  <si>
-    <t>虚空</t>
-  </si>
-  <si>
-    <t>虚空兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weasel Bandit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weasel Lackey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Chronos Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mnemosyne Hand</t>
-  </si>
-  <si>
-    <t>时间之手</t>
-  </si>
-  <si>
-    <t>记忆之手</t>
-  </si>
-  <si>
-    <t>Weasel Bandit</t>
-  </si>
-  <si>
-    <t>黄鼠狼强盗</t>
-  </si>
-  <si>
-    <t>Weasel Lackey</t>
-  </si>
-  <si>
-    <t>黄鼠狼小弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Butaro</t>
-  </si>
-  <si>
-    <t>肥之郎</t>
-  </si>
-  <si>
-    <t>Huntaro</t>
-  </si>
-  <si>
-    <t>狩之郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>One-Eye</t>
-  </si>
-  <si>
-    <t>一只眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arbiter of Divine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prism Dancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judge of Divine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Brave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart of Fear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unbroken Will</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ancient Brave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oathblade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand-Mirage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left Warden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right Warden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left Vindicator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣殿右亲卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right Vindicator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gipsy Divine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持殿柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pillarbearer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Athena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voidhold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Megathon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voidlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Bog Monkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Mech-Grunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Skunk Chieftain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Shadow Within</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Rubber Grunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Deathshead Grin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Booby-Trapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Arbiter of Divine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Alloy Cavalier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Judge of Divine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Butaro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Huntaro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Infancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#The Brave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Slasher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Dust-Sealed Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Hand-Ideal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Hand-Sin#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miracle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,1,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,6,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,3,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,2,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,4,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,2,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,7,7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7,7,7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅典娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,2,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,3,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,4,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,1,1]</t>
+  </si>
+  <si>
+    <t>[3,1,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,8,8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,8,8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12,12,12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>光明来使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意志实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锡兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Swordsman's Spirit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emissary of Light</t>
+  </si>
+  <si>
+    <t>Tin Soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Shadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,5,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity of Will</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emissary of Light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player Initial Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,2]</t>
+  </si>
+  <si>
+    <t>[3,5,5]</t>
+  </si>
+  <si>
+    <t>[3,5,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conceit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two Roads Diverged in Life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anonymous Pages of Years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvailableAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsFriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["bullet","shoot","double_shoot","block","double_block","rebounce"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["sword","stab","cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","counterblade","disarm","provoke"]</t>
+  </si>
+  <si>
+    <t>[["Mech-Grunt"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Mech-Scout"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Mech-Minion", "Mech-Guardian"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Bog Monkey"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Swordsman's Spirit"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Swordsman's Spirit","Shadow Within"]]</t>
+  </si>
+  <si>
+    <t>[["Blackman"],["Skunk Ninja"],["Skunk Chieftain"]]</t>
+  </si>
+  <si>
+    <t>[["Novice Assassin","Furious Blade","Deathshead Grin"]]</t>
+  </si>
+  <si>
+    <t>[["Voidwarden of Pale","Voidwarden of Abyss"]]</t>
+  </si>
+  <si>
+    <t>[["Cursed Tree"]]</t>
+  </si>
+  <si>
+    <t>[["Rubber Grunt"]]</t>
+  </si>
+  <si>
+    <t>[["Heavy Gunner","Alloy Cavalier","Booby-Trapper"]]</t>
+  </si>
+  <si>
+    <t>[["Void Devotee"]]</t>
+  </si>
+  <si>
+    <t>[["Void","Chronos Hand","Mnemosyne Hand"]]</t>
+  </si>
+  <si>
+    <t>[["Weasel Bandit","Weasel Lackey"]]</t>
+  </si>
+  <si>
+    <t>[["Butaro","Butaro"]]</t>
+  </si>
+  <si>
+    <t>[["One-Eye"]]</t>
+  </si>
+  <si>
+    <t>[["Arbiter of Divine","Judge of Divine"]]</t>
+  </si>
+  <si>
+    <t>[["Prism Dancer","Cleric"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["The Brave","Heart of Fear","Unbroken Will"]]</t>
+  </si>
+  <si>
+    <t>[["Ancient Brave","Oathblade"]]</t>
+  </si>
+  <si>
+    <t>[["Hand-Mirage","Left Warden","Right Warden"]]</t>
+  </si>
+  <si>
+    <t>[["Left Vindicator","Right Vindicator"],["Gipsy Divine"],["Pillarbearer","Athena","Megathon"]]</t>
+  </si>
+  <si>
+    <t>[["Voidhold","Voidlock"]]</t>
+  </si>
+  <si>
+    <t>[["#Mech-Grunt","#Bog Monkey","#Skunk Chieftain","#Shadow Within"]]</t>
+  </si>
+  <si>
+    <t>[["#Deathshead Grin","#Rubber Grunt","#Booby-Trapper"]]</t>
+  </si>
+  <si>
+    <t>[["#Arbiter of Divine","#Judge of Divine","#Alloy Cavalier"]]</t>
+  </si>
+  <si>
+    <t>[["#Infancy","#The Brave","#Slasher","#Dust-Sealed Heart","#Void"]]</t>
+  </si>
+  <si>
+    <t>[["#Hand-Ideal"]]</t>
+  </si>
+  <si>
+    <t>[["#Mech-Grunt#","#Bog Monkey#","#Skunk Chieftain#","#Shadow Within#"]]</t>
+  </si>
+  <si>
+    <t>[["#Deathshead Grin#","#Rubber Grunt#","#Booby-Trapper#"]]</t>
+  </si>
+  <si>
+    <t>[["#Arbiter of Divine#","#Judge of Divine#","#Alloy Cavalier#"]]</t>
+  </si>
+  <si>
+    <t>[["#Infancy#","#The Brave#","#Slasher#","#Dust-Sealed Heart#","#Void#"]]</t>
+  </si>
+  <si>
+    <t>[["#Hand-Sin#"]]</t>
+  </si>
+  <si>
+    <t>[["shadow"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["$shadow"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[],["Emissary of Light"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Entity of Will"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Retreating Figure"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[],[],["$Swordsman's Spirit"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["$Swordsman's Spirit"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["$Swordsman's Spirit,Tin Soldier"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["#Butaro#","#Huntaro#","#Tiger#"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["#Butaro","#Huntaro","#Tiger"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Rubber Tank"],["Tiger","Vanguard Horseman"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Booby-Trapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["bullet","shoot","double_shoot","block","double_block","rebounce"]</t>
+  </si>
+  <si>
+    <t>["bullet","shoot","double_shoot","block","double_block","rebounce","provoke"]</t>
+  </si>
+  <si>
+    <t>["bullet","shoot","double_shoot","block","double_block","rebounce","provoke"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["bullet","shoot","block"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ["bullet","sword","stab","cleave","ghost_sever","spirit_sever","shoot","double_shoot","RPG","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","provoke"],</t>
+  </si>
+  <si>
+    <t>["sword","stab","cleave","block","double_block","heavy_block","counterblade"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["sword","stab","cleave","ghost_sever","block","double_block","heavy_block","deflect","counterblade","disarm"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["sword","stab","cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","counterblade","disarm"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["bullet","sword","stab","cleave","ghost_sever","spirit_sever","shoot","double_shoot","RPG","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","provoke"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["bullet","sword","stab","cleave","ghost_sever","spirit_sever","shoot","double_shoot","RPG","double_RPG","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","provoke"]</t>
+  </si>
+  <si>
+    <t>["bullet","sword","stab","cleave","ghost_sever","spirit_sever","shoot","double_shoot","RPG","double_RPG","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","provoke"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["bullet","sword","stab","cleave","ghost_sever","spirit_sever","shoot","double_shoot","RPG","double_RPG","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","provoke","comeon"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["double_bullet","double_sword","stab","cleave","laser_stab","laser_cleave","ghost_sever","spirit_sever","shoot","double_shoot","RPG","double_RPG","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","provoke","comeon"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["double_bullet","double_sword","stab","cleave","laser_stab","laser_cleave","ghost_sever","spirit_sever","shoot","double_shoot","laser_shoot","RPG","double_RPG","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","spectral_reflection","provoke","comeon"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["double_bullet","double_sword","stab","cleave","laser_stab","laser_cleave","ghost_sever","spirit_sever","shoot","double_shoot","laser_shoot","laser_cannon","RPG","double_RPG","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","spectral_reflection","provoke","comeon"]</t>
+  </si>
+  <si>
+    <t>["bullet","block","shoot"]</t>
+  </si>
+  <si>
+    <t>["bullet","shoot","double_shoot","block","double_block"]</t>
+  </si>
+  <si>
+    <t>["sword","stab","cleave","block","double_block","heavy_block","counterblade","provoke"]</t>
+  </si>
+  <si>
+    <t>["sword","stab","cleave","block","double_block","heavy_block","deflect","counterblade","provoke"]</t>
+  </si>
+  <si>
+    <t>["sword","stab","cleave","ghost_sever","block","double_block","heavy_block","deflect","counterblade","disarm","provoke"]</t>
+  </si>
+  <si>
+    <t>["sword","stab","cleave","block","double_block","heavy_block","deflect"]</t>
+  </si>
+  <si>
+    <t>["bullet","shoot","double_shoot","RPG","double_RPG","block","double_block","heavy_block","deflect","rebounce","provoke"]</t>
+  </si>
+  <si>
+    <t>["bullet","RPG","double_RPG","block","double_block","heavy_block","deflect"]</t>
+  </si>
+  <si>
+    <t>["bullet","shoot","double_shoot","RPG","double_RPG","block","double_block","heavy_block","deflect","rebounce","provoke","comeon"]</t>
+  </si>
+  <si>
+    <t>["bullet","sword","shoot","double_shoot","RPG","double_RPG","stab","cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","provoke","comeon"]</t>
+  </si>
+  <si>
+    <t>["double_sword","laser_stab","laser_cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","counterblade","disarm","provoke"]</t>
+  </si>
+  <si>
+    <t>["double_sword","laser_stab","laser_cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","counterblade","disarm","provoke","comeon"]</t>
+  </si>
+  <si>
+    <t>["double_sword","stab","cleave","laser_stab","laser_cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","counterblade","disarm","spectral_reflection","provoke","comeon"]</t>
+  </si>
+  <si>
+    <t>["double_bullet","shoot","double_shoot","laser_shoot","RPG","double_RPG","block","double_block","heavy_block","deflect","rebounce","provoke","comeon"]</t>
+  </si>
+  <si>
+    <t>["double_bullet","double_sword","shoot","double_shoot","laser_shoot","RPG","double_RPG","stab","cleave","laser_stab","laser_cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","spectral_reflection","provoke","comeon"]</t>
+  </si>
+  <si>
+    <t>["double_sword","stab","cleave","laser_stab","laser_cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","spectral_reflection","provoke","comeon"]</t>
+  </si>
+  <si>
+    <t>["double_sword","stab","cleave","laser_stab","laser_cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","counterblade","disarm","provoke","comeon"]</t>
+  </si>
+  <si>
+    <t>["double_bullet","double_sword","shoot","double_shoot","laser_shoot","RPG","double_RPG","nuclear_bomb","stab","cleave","laser_stab","laser_cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","spectral_reflection","provoke","comeon"]</t>
+  </si>
+  <si>
+    <t>["double_bullet","double_sword","shoot","double_shoot","laser_shoot","RPG","double_RPG","laser_cannon","nuclear_bomb","stab","cleave","laser_stab","laser_cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","spectral_reflection","provoke","comeon"]</t>
+  </si>
+  <si>
+    <t>["double_bullet","shoot","double_shoot","cleave","laser_stab","laser_cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","rebounce","provoke","comeon"]</t>
+  </si>
+  <si>
+    <t>["double_bullet","double_sword","shoot","double_shoot","laser_shoot","RPG","double_RPG","laser_cannon","stab","cleave","laser_stab","laser_cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","spectral_reflection","provoke","comeon"]</t>
+  </si>
+  <si>
+    <t>#Tiger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Tiger#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>裁决使</t>
-  </si>
-  <si>
-    <t>审判官</t>
-  </si>
-  <si>
-    <t>Prism Dancer</t>
-  </si>
-  <si>
-    <t>棱镜舞者</t>
-  </si>
-  <si>
-    <t>勇者</t>
-  </si>
-  <si>
-    <t>畏惧之心</t>
-  </si>
-  <si>
-    <t>不屈之意</t>
-  </si>
-  <si>
-    <t>古老勇者</t>
-  </si>
-  <si>
-    <t>誓约之剑</t>
-  </si>
-  <si>
-    <t>手·幻象</t>
-  </si>
-  <si>
-    <t>左戍卫</t>
-  </si>
-  <si>
-    <t>右戍卫</t>
-  </si>
-  <si>
-    <t>震殿威</t>
-  </si>
-  <si>
-    <t>虚空之笼</t>
-  </si>
-  <si>
-    <t>虚空之锁</t>
-  </si>
-  <si>
-    <t>“心魔”</t>
-  </si>
-  <si>
-    <t>“心魔”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孩提</t>
-  </si>
-  <si>
-    <t>拔刀斋</t>
-  </si>
-  <si>
-    <t>尘封之心</t>
-  </si>
-  <si>
-    <t>手·真</t>
-  </si>
-  <si>
-    <t>手·邪</t>
-  </si>
-  <si>
-    <t>The Brave</t>
-  </si>
-  <si>
-    <t>Gipsy Divine</t>
-  </si>
-  <si>
-    <t>Hand-Mirage</t>
-  </si>
-  <si>
-    <t>Athena</t>
-  </si>
-  <si>
-    <t>神圣流浪者</t>
-  </si>
-  <si>
-    <t>圣殿左亲卫</t>
-  </si>
-  <si>
-    <t>Left Warden</t>
-  </si>
-  <si>
-    <t>Right Warden</t>
-  </si>
-  <si>
-    <t>Pillarbearer</t>
-  </si>
-  <si>
-    <t>Voidlock</t>
-  </si>
-  <si>
-    <t>Voidhold</t>
-  </si>
-  <si>
-    <t>Unbroken Will</t>
-  </si>
-  <si>
-    <t>Heart of Fear</t>
-  </si>
-  <si>
-    <t>Void</t>
-  </si>
-  <si>
-    <t>Cursed Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Voidwarden of Abyss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Voidwarden of Pale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shadow Within</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skunk Ninja</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Tiger"</t>
-  </si>
-  <si>
-    <t>Oathblade</t>
-  </si>
-  <si>
-    <t>Ancient Brave</t>
-  </si>
-  <si>
-    <t>Right Vindicator</t>
-  </si>
-  <si>
-    <t>Left Vindicator</t>
-  </si>
-  <si>
-    <t>Megathon</t>
-  </si>
-  <si>
-    <t>#Mech-Grunt</t>
-  </si>
-  <si>
-    <t>#Bog Monkey</t>
-  </si>
-  <si>
-    <t>#Skunk Chieftain</t>
-  </si>
-  <si>
-    <t>#Shadow Within</t>
-  </si>
-  <si>
-    <t>#Deathshead Grin</t>
-  </si>
-  <si>
-    <t>#Rubber Grunt</t>
-  </si>
-  <si>
-    <t>#Booby-Trapper</t>
-  </si>
-  <si>
-    <t>Arbiter of Divine</t>
-  </si>
-  <si>
-    <t>Judge of Divine</t>
-  </si>
-  <si>
-    <t>#Arbiter of Divine</t>
-  </si>
-  <si>
-    <t>#Judge of Divine</t>
-  </si>
-  <si>
-    <t>#Alloy Cavalier</t>
-  </si>
-  <si>
-    <t>#"Tiger"</t>
-  </si>
-  <si>
-    <t>#Butaro</t>
-  </si>
-  <si>
-    <t>#Huntaro</t>
-  </si>
-  <si>
-    <t>#Slasher</t>
-  </si>
-  <si>
-    <t>#Infancy</t>
-  </si>
-  <si>
-    <t>#The Brave</t>
-  </si>
-  <si>
-    <t>#Dust-Sealed Heart</t>
-  </si>
-  <si>
-    <t>#Void</t>
-  </si>
-  <si>
-    <t>#Hand-Ideal</t>
-  </si>
-  <si>
-    <t>#Mech-Grunt#</t>
-  </si>
-  <si>
-    <t>#Bog Monkey#</t>
-  </si>
-  <si>
-    <t>#Skunk Chieftain#</t>
-  </si>
-  <si>
-    <t>#Shadow Within#</t>
-  </si>
-  <si>
-    <t>#Deathshead Grin#</t>
-  </si>
-  <si>
-    <t>#Rubber Grunt#</t>
-  </si>
-  <si>
-    <t>#Booby-Trapper#</t>
-  </si>
-  <si>
-    <t>#Arbiter of Divine#</t>
-  </si>
-  <si>
-    <t>#Judge of Divine#</t>
-  </si>
-  <si>
-    <t>#Alloy Cavalier#</t>
-  </si>
-  <si>
-    <t>#"Tiger"#</t>
-  </si>
-  <si>
-    <t>#Butaro#</t>
-  </si>
-  <si>
-    <t>#Huntaro#</t>
-  </si>
-  <si>
-    <t>#Infancy#</t>
-  </si>
-  <si>
-    <t>#The Brave#</t>
-  </si>
-  <si>
-    <t>#Slasher#</t>
-  </si>
-  <si>
-    <t>#Dust-Sealed Heart#</t>
-  </si>
-  <si>
-    <t>#Void#</t>
-  </si>
-  <si>
-    <t>#Hand-Sin#</t>
-  </si>
-  <si>
-    <t>冷漠的</t>
-  </si>
-  <si>
-    <t>狡诈的</t>
-  </si>
-  <si>
-    <t>友好的</t>
-  </si>
-  <si>
-    <t>怯懦的</t>
-  </si>
-  <si>
-    <t>好战的</t>
-  </si>
-  <si>
-    <t>傲慢的</t>
-  </si>
-  <si>
-    <t>Sly</t>
-  </si>
-  <si>
-    <t>Sly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friendly</t>
-  </si>
-  <si>
-    <t>Cowardly</t>
-  </si>
-  <si>
-    <t>Bellicose</t>
-  </si>
-  <si>
-    <t>Arrogant</t>
-  </si>
-  <si>
-    <t>Initial Honesty Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emotion Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Honesty Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.9,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,0.8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3,8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.3,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.1,0.95]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.7,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peaceful</t>
-  </si>
-  <si>
-    <t>Afraid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平和的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恐惧的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5,6,3,4,2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5,3,7,3,2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friendly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bellicose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cold</t>
-  </si>
-  <si>
-    <t>树灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arborfolk</t>
-  </si>
-  <si>
-    <t>Cowardly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牧师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cleric</t>
-  </si>
-  <si>
-    <t>[0,0,0]</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
-    <t>3-10</t>
-  </si>
-  <si>
-    <t>3-11</t>
-  </si>
-  <si>
-    <t>3-12</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>2-8</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>4-3A</t>
-  </si>
-  <si>
-    <t>4-4A</t>
-  </si>
-  <si>
-    <t>4-5A</t>
-  </si>
-  <si>
-    <t>4-6A</t>
-  </si>
-  <si>
-    <t>4-7A</t>
-  </si>
-  <si>
-    <t>4-8A</t>
-  </si>
-  <si>
-    <t>4-3B</t>
-  </si>
-  <si>
-    <t>4-4B</t>
-  </si>
-  <si>
-    <t>4-5B</t>
-  </si>
-  <si>
-    <t>4-6B</t>
-  </si>
-  <si>
-    <t>4-7B</t>
-  </si>
-  <si>
-    <t>4-8B</t>
-  </si>
-  <si>
-    <t>Mech-Grunt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Mech-Grunt]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mech-Scout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Mech-Scout]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mech-Minion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mech-Guardian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Mech-Minion,Mech-Guardian]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kensei</t>
-  </si>
-  <si>
-    <t>宗师</t>
-  </si>
-  <si>
-    <t>Ashes of Glory</t>
-  </si>
-  <si>
-    <t>“剑心”</t>
-  </si>
-  <si>
-    <t>使徒</t>
-  </si>
-  <si>
-    <t>棱镜迷宫</t>
-  </si>
-  <si>
-    <t>Mirror</t>
-  </si>
-  <si>
-    <t>镜中万象</t>
-  </si>
-  <si>
-    <t>In my heart</t>
-  </si>
-  <si>
-    <t>童话勇者</t>
-  </si>
-  <si>
-    <t>Retreating Figure</t>
-  </si>
-  <si>
-    <t>On The Way</t>
-  </si>
-  <si>
-    <t>无名书</t>
-  </si>
-  <si>
-    <t>十字路口</t>
-  </si>
-  <si>
-    <t>Deception</t>
-  </si>
-  <si>
-    <t>Anger</t>
-  </si>
-  <si>
-    <t>Regret</t>
-  </si>
-  <si>
-    <t>The True Heart</t>
-  </si>
-  <si>
-    <t>The Malignant Masquerade</t>
-  </si>
-  <si>
-    <t>Bog Monkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Bog Monkey]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Swordsman's Spirit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Swordsman's Spirit]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Swordsman's Spirit,Shadow Within]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blackman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skunk Chieftain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Blackman],[Skunk Ninja],[Skunk Chieftain]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Novice Assassin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Furious Blade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deathshead Grin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Novice Assassin,Furious Blade,Deathshead Grin]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Voidwarden of Pale,Voidwarden of Abyss]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Cursed Tree]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rubber Grunt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Rubber Grunt]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Tiger"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rubber Tank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vanguard Horseman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Rubber Tank],["Tiger",Vanguard Horseman]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heavy Gunner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alloy Cavalier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Booby-Trapper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Heavy Gunner,Alloy Cavalier,Booby-Trapper]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Void</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“虚界”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Void Devotee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Void Devotee]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weasel Bandit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weasel Lackey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Weasel Bandit，Weasel Lackey]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chronos Hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mnemosyne Hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Void,Chronos Hand,Mnemosyne Hand]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Butaro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Butaro,Butaro]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One-Eye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[One-Eye]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arbiter of Divine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prism Dancer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Judge of Divine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Arbiter of Divine,Judge of Divine]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cleric</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Prism Dancer,Cleric]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Brave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heart of Fear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unbroken Will</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[The Brave,Heart of Fear,Unbroken Will]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ancient Brave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oathblade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Ancient Brave,Oathblade]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hand-Mirage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left Warden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right Warden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Hand-Mirage,Left Warden,Right Warden]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left Vindicator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣殿右亲卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right Vindicator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gipsy Divine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持殿柱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pillarbearer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Athena</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Voidhold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Megathon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Left Vindicator,Right Vindicator],[Gipsy Divine],[Pillarbearer,Athena,Megathon]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Voidlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Voidhold,Voidlock]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Bog Monkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Mech-Grunt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Skunk Chieftain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Shadow Within</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[#Mech-Grunt,#Bog Monkey,#Skunk Chieftain,#Shadow Within]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Rubber Grunt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Deathshead Grin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Booby-Trapper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[#Deathshead Grin,#Rubber Grunt,#Booby-Trapper]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Arbiter of Divine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Alloy Cavalier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Judge of Divine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[#Arbiter of Divine,#Judge of Divine,#Alloy Cavalier]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Butaro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Huntaro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#"Tiger"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[#Butaro,#Huntaro,#"Tiger"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Infancy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#The Brave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Slasher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Dust-Sealed Heart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Void</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[#Infancy,#The Brave,#Slasher,#Dust-Sealed Heart,#Void]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[#Mech-Grunt#,#Bog Monkey#,#Skunk Chieftain#,#Shadow Within#]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[#Deathshead Grin#,#Rubber Grunt#,#Booby-Trapper#]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[#Arbiter of Divine#,#Judge of Divine#,#Alloy Cavalier#]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[#Butaro#,#Huntaro#,#"Tiger"#]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[#Infancy#,#The Brave#,#Slasher#,#Dust-Sealed Heart#,#Void#]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Hand-Ideal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[#Hand-Ideal]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Hand-Sin#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[#Hand-Sin#]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Miracle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[bullet,shoot,double_shoot,block,double_block]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[bullet,shoot,double_shoot,block,double_block,rebounce]</t>
-  </si>
-  <si>
-    <t>[bullet,shoot,double_shoot,block,double_block,rebounce]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[bullet,shoot,double_shoot,block,double_block,rebounce,provoke]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[sword,stab,cleave,block,double_block,heavy_block,counterblade,provoke]</t>
-  </si>
-  <si>
-    <t>[sword,stab,cleave,block,double_block,heavy_block,counterblade,provoke]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[sword,stab,cleave,block,double_block,heavy_block,deflect,counterblade,provoke]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[sword,stab,cleave,ghost_sever,block,double_block,heavy_block,deflect,counterblade,disarm,provoke]</t>
-  </si>
-  <si>
-    <t>[sword,stab,cleave,ghost_sever,block,double_block,heavy_block,deflect,counterblade,disarm,provoke]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[sword,stab,cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,counterblade,disarm,provoke]</t>
-  </si>
-  <si>
-    <t>[sword,stab,cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,counterblade,disarm,provoke]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[sword,stab,cleave,block,double_block,heavy_block,deflect]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[bullet,shoot,double_shoot,RPG,double_RPG,block,double_block,heavy_block,deflect,rebounce,provoke]</t>
-  </si>
-  <si>
-    <t>[bullet,shoot,double_shoot,RPG,double_RPG,block,double_block,heavy_block,deflect,rebounce,provoke]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[bullet,RPG,double_RPG,block,double_block,heavy_block,deflect]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[bullet,shoot,double_shoot,RPG,double_RPG,block,double_block,heavy_block,deflect,rebounce,provoke,comeon]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[bullet,sword,shoot,double_shoot,RPG,double_RPG,stab,cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,provoke,comeon]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[double_sword,laser_stab,laser_cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,counterblade,disarm,provoke]</t>
-  </si>
-  <si>
-    <t>[double_sword,laser_stab,laser_cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,counterblade,disarm,provoke]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[double_sword,laser_stab,laser_cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,counterblade,disarm,provoke,comeon]</t>
-  </si>
-  <si>
-    <t>[double_sword,laser_stab,laser_cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,counterblade,disarm,provoke,comeon]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[double_sword,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,spectral_reflection,provoke,comeon]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[double_sowrd,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,counterblade,disarm,provoke,comeon]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[double_bullet,double_sword,shoot,double_shoot,laser_shoot,RPG,double_RPG,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,spectral_reflection,provoke,comeon]</t>
-  </si>
-  <si>
-    <t>[double_bullet,double_sword,shoot,double_shoot,laser_shoot,RPG,double_RPG,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,spectral_reflection,provoke,comeon]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[double_sword,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,counterblade,disarm,spectral_reflection,provoke,comeon]</t>
-  </si>
-  <si>
-    <t>[double_sword,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,counterblade,disarm,spectral_reflection,provoke,comeon]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[double_bullet,shoot,double_shoot,laser_shoot,RPG,double_RPG,block,double_block,heavy_block,deflect,rebounce,provoke,comeon]</t>
-  </si>
-  <si>
-    <t>[double_bullet,shoot,double_shoot,laser_shoot,RPG,double_RPG,block,double_block,heavy_block,deflect,rebounce,provoke,comeon]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[double_bullet,double_sword,shoot,double_shoot,laser_shoot,RPG,double_RPG,nuclear_bomb,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,spectral_reflection,provoke,comeon]</t>
-  </si>
-  <si>
-    <t>[double_bullet,double_sword,shoot,double_shoot,laser_shoot,RPG,double_RPG,nuclear_bomb,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,spectral_reflection,provoke,comeon]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[double_bullet,double_sword,shoot,double_shoot,laser_shoot,RPG,double_RPG,laser_connon,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,spectral_reflection,provoke,comeon]</t>
-  </si>
-  <si>
-    <t>[double_bullet,double_sword,shoot,double_shoot,laser_shoot,RPG,double_RPG,laser_connon,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,spectral_reflection,provoke,comeon]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[double_bullet,double_sword,shoot,double_shoot,laser_shoot,RPG,double_RPG,laser_connon,nuclear_bomb,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,spectral_reflection,provoke,comeon]</t>
-  </si>
-  <si>
-    <t>[double_bullet,double_sword,shoot,double_shoot,laser_shoot,RPG,double_RPG,laser_connon,nuclear_bomb,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,spectral_reflection,provoke,comeon]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,0,0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,1,1]</t>
-  </si>
-  <si>
-    <t>[0,1,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,3,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,4,4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[0,6,6]</t>
-  </si>
-  <si>
-    <t>[0,6,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,2,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,5,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,4,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,1,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,8,8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6,8,8]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[0,3,3]</t>
-  </si>
-  <si>
-    <t>[0,3,3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,2,2]</t>
-  </si>
-  <si>
-    <t>[0,2,2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3,0,0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6,0,0]</t>
-  </si>
-  <si>
-    <t>[6,0,0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4,0,0]</t>
-  </si>
-  <si>
-    <t>[4,0,0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,4,4]</t>
-  </si>
-  <si>
-    <t>[0,4,4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2,0,0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2,2,2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,7,7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7,7,7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅典娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3,2,2]</t>
-  </si>
-  <si>
-    <t>[3,2,2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2,3,3]</t>
-  </si>
-  <si>
-    <t>[2,3,3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2,4,4]</t>
-  </si>
-  <si>
-    <t>[2,4,4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3,1,1]</t>
-  </si>
-  <si>
-    <t>[3,1,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4,8,8]</t>
-  </si>
-  <si>
-    <t>[4,8,8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,8,8]</t>
-  </si>
-  <si>
-    <t>[0,8,8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[12,12,12]</t>
-  </si>
-  <si>
-    <t>[12,12,12]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friend List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shadow</t>
-  </si>
-  <si>
-    <t>光明来使</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意志实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锡兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Swordsman's Spirit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emissary of Light</t>
-  </si>
-  <si>
-    <t>Tin Soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Shadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,5,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,10,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7,0,0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1827,165 +1915,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[shadow]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[$shadow]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entity of Will</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emissary of Light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[],[Emissary of Light]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Entity of Will]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[Retreating Figure]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[],[],[$Swordsman's Spirit]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[$Swordsman's Spirit]]</t>
-  </si>
-  <si>
-    <t>[[$Swordsman's Spirit]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[$Swordsman's Spirit,Tin Soldier]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[sword,stab,cleave,block,double_block,heavy_block,counterblade]</t>
-  </si>
-  <si>
-    <t>[sword,stab,cleave,block,double_block,heavy_block,counterblade]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[sword,stab,cleave,ghost_sever,block,double_block,heavy_block,deflect,counterblade,disarm]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[sword,stab,cleave,ghost_sever,spirit_sever,block,double_block,heavy_block,deflect,counterblade,disarm]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[bullet,sword,stab,cleave,ghost_sever,spirit_sever,shoot,double_shoot,RPG,doule_RPG,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,provoke]</t>
-  </si>
-  <si>
-    <t>[bullet,sword,stab,cleave,ghost_sever,spirit_sever,shoot,double_shoot,RPG,doule_RPG,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,provoke]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[bullet,sword,stab,cleave,ghost_sever,spirit_sever,shoot,double_shoot,RPG,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,provoke]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[bullet,sword,stab,cleave,ghost_sever,spirit_sever,shoot,double_shoot,RPG,doule_RPG,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,provoke,comeon]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[double_bullet,double_sword,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,shoot,double_shoot,RPG,doule_RPG,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,provoke,comeon]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[double_bullet,double_sword,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,shoot,double_shoot,laser_shoot,RPG,doule_RPG,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,spectral_reflection,provoke,comeon]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[double_bullet,double_sword,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,shoot,double_shoot,laser_shoot,laser_connon,RPG,doule_RPG,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,spectral_reflection,provoke,comeon]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[double_bullet,double_sword,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,shoot,double_shoot,laser_shoot,laser_connon,RPG,doule_RPG,nuclear_bomb,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,spectral_reflection,provoke,comeon]</t>
-  </si>
-  <si>
-    <t>[double_bullet,double_sword,stab,cleave,laser_stab,laser_cleave,ghost_sever,spirit_sever,shoot,double_shoot,laser_shoot,laser_connon,RPG,doule_RPG,nuclear_bomb,block,double_block,heavy_block,deflect,rebounce,counterblade,disarm,spectral_reflection,provoke,comeon]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player Initial Resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,2]</t>
-  </si>
-  <si>
-    <t>[3,5,5]</t>
-  </si>
-  <si>
-    <t>[3,5,5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conceit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two Roads Diverged in Life</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anonymous Pages of Years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvailableAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsFriend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitialResource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["bullet","shoot","double_shoot","block","double_block","rebounce"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["bullet","block","shoot"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["sword","stab","cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","counterblade","disarm","provoke"]</t>
-  </si>
-  <si>
-    <t>["bullet","shoot","double_shoot","RPG","double_RPG","block","double_block","heavy_block","deflect","rebounce","provoke"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["sword","stab","cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","counterblade","disarm","provoke"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["double_sword","stab","cleave","laser_stab","laser_cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","counterblade","disarm","spectral_reflection","provoke","comeon"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["double_bullet","shoot","double_shoot","cleave","laser_stab","laser_cleave","ghost_sever","spirit_sever","block","double_block","heavy_block","deflect","rebounce","provoke","comeon"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>[12,13,13]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["block","cleave","comeon","counterblade","deflect","disarm","double_RPG","double_bullet","double_block","double_shoot","double_sword","ghost_sever","heavy_block","laser_cleave","laser_cannon","laser_shoot","laser_stab","provoke","rebounce","shoot","spectral_reflection","spirit_sever","stab","RPG"]</t>
   </si>
 </sst>
 </file>
@@ -2522,25 +2456,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259E49F2-2246-4E59-AF25-B4C5AD1F25A6}">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView topLeftCell="I63" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" style="24" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08203125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="3.5" style="3" customWidth="1"/>
+    <col min="1" max="2" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="35.5" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="3"/>
+    <col min="8" max="8" width="8.77734375" style="3"/>
+    <col min="9" max="9" width="255.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2554,19 +2487,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>555</v>
+        <v>441</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>556</v>
+        <v>442</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>554</v>
+        <v>440</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -2574,18 +2507,18 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
     </row>
-    <row r="2" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="32" t="b">
         <v>0</v>
@@ -2594,11 +2527,11 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>558</v>
+        <v>508</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2606,44 +2539,44 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="32" t="b">
+      <c r="E3" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="32" t="b">
         <v>0</v>
@@ -2652,11 +2585,11 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
@@ -2664,44 +2597,44 @@
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
     </row>
-    <row r="5" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="32" t="b">
+      <c r="E5" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="3">
         <v>2</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>474</v>
+        <v>395</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="32" t="b">
         <v>0</v>
@@ -2710,11 +2643,11 @@
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="35" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
@@ -2722,44 +2655,44 @@
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
     </row>
-    <row r="7" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="32" t="b">
+        <v>62</v>
+      </c>
+      <c r="E7" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="3">
         <v>3</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E8" s="32" t="b">
         <v>0</v>
@@ -2768,11 +2701,11 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -2780,44 +2713,44 @@
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
     </row>
-    <row r="9" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="32" t="b">
+        <v>100</v>
+      </c>
+      <c r="E9" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>3</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="32" t="b">
         <v>0</v>
@@ -2826,11 +2759,11 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>447</v>
+        <v>512</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -2838,44 +2771,44 @@
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
     </row>
-    <row r="11" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="32" t="b">
+        <v>104</v>
+      </c>
+      <c r="E11" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F11" s="3">
         <v>5</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>478</v>
+        <v>397</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>106</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>107</v>
       </c>
       <c r="E12" s="32" t="b">
         <v>0</v>
@@ -2884,11 +2817,11 @@
         <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="35" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -2896,44 +2829,44 @@
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
     </row>
-    <row r="13" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="32" t="b">
+        <v>109</v>
+      </c>
+      <c r="E13" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="3">
         <v>4</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>108</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>109</v>
       </c>
       <c r="E14" s="32" t="b">
         <v>0</v>
@@ -2942,11 +2875,11 @@
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
@@ -2954,44 +2887,44 @@
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="32" t="b">
+        <v>110</v>
+      </c>
+      <c r="E15" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>3</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="32" t="b">
         <v>0</v>
@@ -3000,11 +2933,11 @@
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="35" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
@@ -3012,44 +2945,44 @@
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
     </row>
-    <row r="17" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="32" t="b">
+        <v>32</v>
+      </c>
+      <c r="E17" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>9</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>480</v>
+        <v>398</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E18" s="32" t="b">
         <v>0</v>
@@ -3058,11 +2991,11 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15" t="s">
-        <v>450</v>
+        <v>513</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -3070,44 +3003,44 @@
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
     </row>
-    <row r="19" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="32" t="b">
+        <v>112</v>
+      </c>
+      <c r="E19" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F19" s="3">
         <v>5</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="32" t="s">
         <v>115</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>116</v>
       </c>
       <c r="E20" s="32" t="b">
         <v>0</v>
@@ -3116,11 +3049,11 @@
         <v>7</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>487</v>
+        <v>402</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15" t="s">
-        <v>451</v>
+        <v>514</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
@@ -3128,44 +3061,44 @@
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
     </row>
-    <row r="21" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>188</v>
+        <v>491</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>355</v>
+        <v>490</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="32" t="b">
+        <v>118</v>
+      </c>
+      <c r="E21" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>4</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>485</v>
+        <v>401</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>117</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>118</v>
       </c>
       <c r="E22" s="32" t="b">
         <v>0</v>
@@ -3174,11 +3107,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15" t="s">
-        <v>453</v>
+        <v>515</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
@@ -3186,44 +3119,44 @@
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
     </row>
-    <row r="23" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="32" t="b">
+      <c r="E23" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="32" t="b">
         <v>0</v>
@@ -3232,11 +3165,11 @@
         <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>489</v>
+        <v>403</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
@@ -3244,44 +3177,44 @@
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
     </row>
-    <row r="25" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>124</v>
+        <v>492</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="32" t="b">
+        <v>123</v>
+      </c>
+      <c r="E25" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F25" s="3">
         <v>2</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>490</v>
+        <v>404</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E26" s="32" t="b">
         <v>0</v>
@@ -3290,11 +3223,11 @@
         <v>5</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15" t="s">
-        <v>454</v>
+        <v>516</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -3302,44 +3235,44 @@
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
     </row>
-    <row r="27" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="32" t="b">
+        <v>127</v>
+      </c>
+      <c r="E27" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>11</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>491</v>
+        <v>405</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="32" t="s">
         <v>128</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>130</v>
       </c>
       <c r="E28" s="32" t="b">
         <v>0</v>
@@ -3348,11 +3281,11 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="35" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
@@ -3360,44 +3293,44 @@
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
     </row>
-    <row r="29" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="32" t="b">
+        <v>131</v>
+      </c>
+      <c r="E29" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>3</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>132</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>134</v>
       </c>
       <c r="E30" s="32" t="b">
         <v>0</v>
@@ -3406,11 +3339,11 @@
         <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>490</v>
+        <v>404</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
@@ -3418,44 +3351,44 @@
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
     </row>
-    <row r="31" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="32" t="b">
+        <v>134</v>
+      </c>
+      <c r="E31" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F31" s="3">
         <v>5</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E32" s="32" t="b">
         <v>0</v>
@@ -3464,11 +3397,11 @@
         <v>3</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15" t="s">
-        <v>456</v>
+        <v>518</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
@@ -3476,44 +3409,44 @@
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
     </row>
-    <row r="33" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="32" t="b">
+        <v>138</v>
+      </c>
+      <c r="E33" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>6</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>480</v>
+        <v>398</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E34" s="32" t="b">
         <v>0</v>
@@ -3522,11 +3455,11 @@
         <v>4</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
@@ -3534,44 +3467,44 @@
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="32" t="b">
+        <v>142</v>
+      </c>
+      <c r="E35" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>12</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E36" s="32" t="b">
         <v>0</v>
@@ -3580,11 +3513,11 @@
         <v>4</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="35" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
@@ -3592,44 +3525,44 @@
       <c r="M36" s="15"/>
       <c r="N36" s="15"/>
     </row>
-    <row r="37" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="32" t="b">
+        <v>144</v>
+      </c>
+      <c r="E37" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F37" s="3">
         <v>5</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>487</v>
+        <v>402</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E38" s="32" t="b">
         <v>0</v>
@@ -3638,11 +3571,11 @@
         <v>4</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>480</v>
+        <v>398</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="35" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
@@ -3650,44 +3583,44 @@
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="E39" s="32" t="b">
+        <v>266</v>
+      </c>
+      <c r="E39" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F39" s="3">
         <v>7</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="C40" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E40" s="32" t="b">
         <v>0</v>
@@ -3696,11 +3629,11 @@
         <v>8</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>492</v>
+        <v>406</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
@@ -3708,44 +3641,44 @@
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
     </row>
-    <row r="41" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="32" t="b">
+        <v>148</v>
+      </c>
+      <c r="E41" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>4</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E42" s="32" t="b">
         <v>0</v>
@@ -3754,11 +3687,11 @@
         <v>4</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
@@ -3766,44 +3699,44 @@
       <c r="M42" s="15"/>
       <c r="N42" s="15"/>
     </row>
-    <row r="43" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="32" t="b">
+        <v>150</v>
+      </c>
+      <c r="E43" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>6</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E44" s="32" t="b">
         <v>0</v>
@@ -3812,11 +3745,11 @@
         <v>5</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>489</v>
+        <v>403</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="35" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
@@ -3824,44 +3757,44 @@
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
     </row>
-    <row r="45" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="E45" s="32" t="b">
+        <v>152</v>
+      </c>
+      <c r="E45" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>12</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>491</v>
+        <v>405</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E46" s="32" t="b">
         <v>0</v>
@@ -3870,11 +3803,11 @@
         <v>5</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="15" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
@@ -3882,44 +3815,44 @@
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
     </row>
-    <row r="47" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="E47" s="32" t="b">
+        <v>154</v>
+      </c>
+      <c r="E47" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>3</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>480</v>
+        <v>398</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E48" s="32" t="b">
         <v>0</v>
@@ -3928,11 +3861,11 @@
         <v>5</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="H48" s="15"/>
       <c r="I48" s="15" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
@@ -3940,44 +3873,44 @@
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
     </row>
-    <row r="49" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="E49" s="32" t="b">
+        <v>366</v>
+      </c>
+      <c r="E49" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>5</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>491</v>
+        <v>405</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="C50" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E50" s="32" t="b">
         <v>0</v>
@@ -3986,11 +3919,11 @@
         <v>13</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>493</v>
+        <v>407</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
@@ -3998,44 +3931,44 @@
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
     </row>
-    <row r="51" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="E51" s="32" t="b">
+        <v>369</v>
+      </c>
+      <c r="E51" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F51" s="3">
         <v>14</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>494</v>
+        <v>408</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>495</v>
+        <v>409</v>
       </c>
       <c r="E52" s="32" t="b">
         <v>0</v>
@@ -4044,11 +3977,11 @@
         <v>7</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>480</v>
+        <v>398</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
@@ -4056,44 +3989,44 @@
       <c r="M52" s="15"/>
       <c r="N52" s="15"/>
     </row>
-    <row r="53" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" s="32" t="b">
+        <v>155</v>
+      </c>
+      <c r="E53" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F53" s="3">
         <v>10</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>487</v>
+        <v>402</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E54" s="32" t="b">
         <v>0</v>
@@ -4102,11 +4035,11 @@
         <v>7</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>480</v>
+        <v>398</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
@@ -4114,44 +4047,44 @@
       <c r="M54" s="15"/>
       <c r="N54" s="15"/>
     </row>
-    <row r="55" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E55" s="32" t="b">
+        <v>157</v>
+      </c>
+      <c r="E55" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F55" s="3">
         <v>6</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>490</v>
+        <v>404</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E56" s="32" t="b">
         <v>0</v>
@@ -4160,11 +4093,11 @@
         <v>4</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>487</v>
+        <v>402</v>
       </c>
       <c r="H56" s="15"/>
       <c r="I56" s="35" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
@@ -4172,44 +4105,44 @@
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
     </row>
-    <row r="57" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" s="32" t="b">
+        <v>97</v>
+      </c>
+      <c r="E57" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>4</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>497</v>
+        <v>410</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E58" s="32" t="b">
         <v>0</v>
@@ -4218,11 +4151,11 @@
         <v>4</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>499</v>
+        <v>411</v>
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="35" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
@@ -4230,44 +4163,44 @@
       <c r="M58" s="15"/>
       <c r="N58" s="15"/>
     </row>
-    <row r="59" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E59" s="32" t="b">
+        <v>158</v>
+      </c>
+      <c r="E59" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>4</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>489</v>
+        <v>403</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E60" s="32" t="b">
         <v>0</v>
@@ -4276,11 +4209,11 @@
         <v>3</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="H60" s="15"/>
       <c r="I60" s="15" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
@@ -4288,44 +4221,44 @@
       <c r="M60" s="15"/>
       <c r="N60" s="15"/>
     </row>
-    <row r="61" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E61" s="32" t="b">
+        <v>112</v>
+      </c>
+      <c r="E61" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>4</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>499</v>
+        <v>411</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E62" s="32" t="b">
         <v>0</v>
@@ -4334,11 +4267,11 @@
         <v>6</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>501</v>
+        <v>412</v>
       </c>
       <c r="H62" s="15"/>
       <c r="I62" s="35" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
@@ -4346,44 +4279,44 @@
       <c r="M62" s="15"/>
       <c r="N62" s="15"/>
     </row>
-    <row r="63" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E63" s="32" t="b">
+        <v>143</v>
+      </c>
+      <c r="E63" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F63" s="3">
         <v>6</v>
       </c>
       <c r="G63" s="31" t="s">
-        <v>480</v>
+        <v>398</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="C64" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E64" s="32" t="b">
         <v>0</v>
@@ -4392,11 +4325,11 @@
         <v>4</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>503</v>
+        <v>414</v>
       </c>
       <c r="H64" s="15"/>
       <c r="I64" s="35" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
@@ -4404,44 +4337,44 @@
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
     </row>
-    <row r="65" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="C65" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E65" s="32" t="b">
+        <v>122</v>
+      </c>
+      <c r="E65" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F65" s="3">
         <v>3</v>
       </c>
       <c r="G65" s="31" t="s">
-        <v>478</v>
+        <v>397</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="23" t="s">
-        <v>206</v>
+        <v>529</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>421</v>
+        <v>529</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E66" s="32" t="b">
         <v>0</v>
@@ -4450,11 +4383,11 @@
         <v>3</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>505</v>
+        <v>415</v>
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="35" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
@@ -4462,44 +4395,44 @@
       <c r="M66" s="15"/>
       <c r="N66" s="15"/>
     </row>
-    <row r="67" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E67" s="32" t="b">
+        <v>138</v>
+      </c>
+      <c r="E67" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F67" s="3">
         <v>5</v>
       </c>
       <c r="G67" s="31" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="25" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E68" s="32" t="b">
         <v>0</v>
@@ -4508,11 +4441,11 @@
         <v>3</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>480</v>
+        <v>398</v>
       </c>
       <c r="H68" s="15"/>
       <c r="I68" s="15" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
@@ -4520,44 +4453,44 @@
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
     </row>
-    <row r="69" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E69" s="32" t="b">
+        <v>162</v>
+      </c>
+      <c r="E69" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F69" s="3">
         <v>4</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>487</v>
+        <v>402</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="25" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="C70" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E70" s="32" t="b">
         <v>0</v>
@@ -4566,11 +4499,11 @@
         <v>5</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>499</v>
+        <v>411</v>
       </c>
       <c r="H70" s="15"/>
       <c r="I70" s="35" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
@@ -4578,44 +4511,44 @@
       <c r="M70" s="15"/>
       <c r="N70" s="15"/>
     </row>
-    <row r="71" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="C71" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E71" s="32" t="b">
+        <v>163</v>
+      </c>
+      <c r="E71" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F71" s="3">
         <v>8</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="25" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E72" s="32" t="b">
         <v>0</v>
@@ -4624,11 +4557,11 @@
         <v>5</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>485</v>
+        <v>401</v>
       </c>
       <c r="H72" s="15"/>
       <c r="I72" s="35" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
@@ -4636,44 +4569,44 @@
       <c r="M72" s="15"/>
       <c r="N72" s="15"/>
     </row>
-    <row r="73" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E73" s="32" t="b">
+        <v>127</v>
+      </c>
+      <c r="E73" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F73" s="3">
         <v>3</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>489</v>
+        <v>403</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="25" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E74" s="32" t="b">
         <v>0</v>
@@ -4682,11 +4615,11 @@
         <v>15</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>509</v>
+        <v>417</v>
       </c>
       <c r="H74" s="15"/>
       <c r="I74" s="35" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
@@ -4694,20 +4627,20 @@
       <c r="M74" s="15"/>
       <c r="N74" s="15"/>
     </row>
-    <row r="75" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="32" t="b">
+        <v>87</v>
+      </c>
+      <c r="E75" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F75" s="3">
@@ -4715,24 +4648,24 @@
         <v>5</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>486</v>
+        <v>532</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="25" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E76" s="32" t="b">
         <v>0</v>
@@ -4742,11 +4675,11 @@
         <v>5</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="H76" s="15"/>
       <c r="I76" s="15" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
@@ -4754,20 +4687,20 @@
       <c r="M76" s="15"/>
       <c r="N76" s="15"/>
     </row>
-    <row r="77" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E77" s="32" t="b">
+        <v>104</v>
+      </c>
+      <c r="E77" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F77" s="3">
@@ -4775,24 +4708,24 @@
         <v>5</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="25" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E78" s="32" t="b">
         <v>0</v>
@@ -4802,11 +4735,11 @@
         <v>5</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>488</v>
+        <v>535</v>
       </c>
       <c r="H78" s="15"/>
       <c r="I78" s="15" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
@@ -4814,20 +4747,20 @@
       <c r="M78" s="15"/>
       <c r="N78" s="15"/>
     </row>
-    <row r="79" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E79" s="32" t="b">
+        <v>108</v>
+      </c>
+      <c r="E79" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F79" s="3">
@@ -4835,24 +4768,24 @@
         <v>4</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="25" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E80" s="32" t="b">
         <v>0</v>
@@ -4862,11 +4795,11 @@
         <v>5</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="H80" s="15"/>
       <c r="I80" s="15" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
@@ -4874,20 +4807,20 @@
       <c r="M80" s="15"/>
       <c r="N80" s="15"/>
     </row>
-    <row r="81" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E81" s="32" t="b">
+        <v>123</v>
+      </c>
+      <c r="E81" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F81" s="3">
@@ -4895,24 +4828,24 @@
         <v>8</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="25" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>145</v>
+        <v>531</v>
       </c>
       <c r="E82" s="32" t="b">
         <v>0</v>
@@ -4922,11 +4855,11 @@
         <v>8</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="H82" s="15"/>
       <c r="I82" s="15" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
@@ -4934,20 +4867,20 @@
       <c r="M82" s="15"/>
       <c r="N82" s="15"/>
     </row>
-    <row r="83" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E83" s="32" t="b">
+        <v>144</v>
+      </c>
+      <c r="E83" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F83" s="3">
@@ -4955,24 +4888,24 @@
         <v>5</v>
       </c>
       <c r="G83" s="31" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="25" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E84" s="32" t="b">
         <v>0</v>
@@ -4982,11 +4915,11 @@
         <v>4</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="H84" s="15"/>
       <c r="I84" s="15" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
@@ -4994,20 +4927,20 @@
       <c r="M84" s="15"/>
       <c r="N84" s="15"/>
     </row>
-    <row r="85" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>225</v>
+        <v>530</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>225</v>
+        <v>530</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E85" s="32" t="b">
+        <v>118</v>
+      </c>
+      <c r="E85" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F85" s="3">
@@ -5015,24 +4948,24 @@
         <v>4</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="25" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E86" s="32" t="b">
         <v>0</v>
@@ -5042,11 +4975,11 @@
         <v>7</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="H86" s="15"/>
       <c r="I86" s="15" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
@@ -5054,20 +4987,20 @@
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
     </row>
-    <row r="87" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E87" s="32" t="b">
+        <v>140</v>
+      </c>
+      <c r="E87" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F87" s="3">
@@ -5075,24 +5008,24 @@
         <v>4</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="25" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E88" s="32" t="b">
         <v>0</v>
@@ -5102,11 +5035,11 @@
         <v>5</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="H88" s="15"/>
       <c r="I88" s="15" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
@@ -5114,20 +5047,20 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
     </row>
-    <row r="89" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E89" s="32" t="b">
+        <v>147</v>
+      </c>
+      <c r="E89" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F89" s="3">
@@ -5135,24 +5068,24 @@
         <v>7</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="25" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E90" s="32" t="b">
         <v>0</v>
@@ -5162,11 +5095,11 @@
         <v>10</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="H90" s="15"/>
       <c r="I90" s="15" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
@@ -5174,20 +5107,20 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
     </row>
-    <row r="91" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E91" s="32" t="b">
+        <v>164</v>
+      </c>
+      <c r="E91" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F91" s="3">
@@ -5195,24 +5128,24 @@
         <v>7</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="25" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E92" s="32" t="b">
         <v>0</v>
@@ -5222,11 +5155,11 @@
         <v>4</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="H92" s="15"/>
       <c r="I92" s="15" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="J92" s="15"/>
       <c r="K92" s="15"/>
@@ -5234,20 +5167,20 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
     </row>
-    <row r="93" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="C93" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E93" s="32" t="b">
+        <v>166</v>
+      </c>
+      <c r="E93" s="38" t="b">
         <v>0</v>
       </c>
       <c r="F93" s="3">
@@ -5255,24 +5188,24 @@
         <v>20</v>
       </c>
       <c r="G93" s="31" t="s">
-        <v>508</v>
+        <v>548</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="32" t="s">
-        <v>512</v>
+        <v>420</v>
       </c>
       <c r="B94" s="32" t="s">
-        <v>512</v>
+        <v>420</v>
       </c>
       <c r="C94" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="E94" s="32" t="b">
         <v>1</v>
@@ -5281,13 +5214,13 @@
         <v>2</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>474</v>
+        <v>395</v>
       </c>
       <c r="H94" s="32" t="s">
         <v>9</v>
       </c>
       <c r="I94" s="32" t="s">
-        <v>557</v>
+        <v>493</v>
       </c>
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
@@ -5295,47 +5228,47 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
     </row>
-    <row r="95" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="24" t="s">
-        <v>520</v>
+        <v>428</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>520</v>
+        <v>428</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>511</v>
-      </c>
-      <c r="E95" s="32" t="b">
+        <v>419</v>
+      </c>
+      <c r="E95" s="38" t="b">
         <v>1</v>
       </c>
       <c r="F95" s="24">
         <v>2</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I95" s="24" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" s="32" t="s">
-        <v>518</v>
+        <v>426</v>
       </c>
       <c r="B96" s="32" t="s">
-        <v>525</v>
+        <v>431</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>513</v>
+        <v>421</v>
       </c>
       <c r="E96" s="32" t="b">
         <v>1</v>
@@ -5344,54 +5277,54 @@
         <v>5</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>490</v>
+        <v>404</v>
       </c>
       <c r="H96" s="32" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I96" s="32" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="24" t="s">
-        <v>524</v>
+        <v>430</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>524</v>
+        <v>430</v>
       </c>
       <c r="C97" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="E97" s="32" t="b">
+        <v>422</v>
+      </c>
+      <c r="E97" s="38" t="b">
         <v>1</v>
       </c>
       <c r="F97" s="39"/>
       <c r="G97" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H97" s="24" t="s">
         <v>9</v>
       </c>
       <c r="I97" s="24" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B98" s="32" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>515</v>
+        <v>423</v>
       </c>
       <c r="E98" s="32" t="b">
         <v>1</v>
@@ -5400,56 +5333,56 @@
         <v>6</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="H98" s="32" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I98" s="32" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="24" t="s">
-        <v>517</v>
+        <v>425</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>517</v>
+        <v>425</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E99" s="32" t="b">
+        <v>62</v>
+      </c>
+      <c r="E99" s="38" t="b">
         <v>1</v>
       </c>
       <c r="F99" s="24">
         <v>8</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>521</v>
+        <v>429</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I99" s="24" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="32" t="s">
-        <v>519</v>
+        <v>427</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>519</v>
+        <v>427</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>516</v>
+        <v>424</v>
       </c>
       <c r="E100" s="32" t="b">
         <v>1</v>
@@ -5458,13 +5391,13 @@
         <v>6</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>487</v>
+        <v>402</v>
       </c>
       <c r="H100" s="32" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I100" s="32" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -5478,24 +5411,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084DBB7A-B5EB-40AD-BCD5-5AECD2B1DA93}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.58203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="90.6640625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="39.08203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.6640625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.5546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="103.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.9140625" style="24"/>
+    <col min="10" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="41" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="41" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -5503,149 +5436,149 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="H1" s="22" t="s">
-        <v>546</v>
+        <v>432</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>314</v>
+        <v>445</v>
       </c>
       <c r="F2" s="32"/>
       <c r="G2" s="32" t="s">
-        <v>12</v>
+        <v>496</v>
       </c>
       <c r="H2" s="32">
         <v>5</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>316</v>
+        <v>446</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="33" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H3" s="33">
         <v>5</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>319</v>
+        <v>447</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>522</v>
+        <v>479</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H4" s="32">
         <v>5</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>340</v>
+        <v>448</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="H5" s="33">
         <v>5</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
@@ -5653,402 +5586,402 @@
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
     </row>
-    <row r="7" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>342</v>
+        <v>449</v>
       </c>
       <c r="F7" s="36"/>
       <c r="G7" s="24" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="H7" s="24">
         <v>5</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>343</v>
+        <v>450</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" s="32" t="s">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="H8" s="32">
         <v>6</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>346</v>
+        <v>451</v>
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="24" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="H9" s="24">
         <v>6</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>523</v>
+        <v>480</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="H10" s="32">
         <v>6</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>351</v>
+        <v>453</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="24" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="H11" s="24">
         <v>6</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>352</v>
+        <v>454</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32" t="s">
-        <v>539</v>
+        <v>497</v>
       </c>
       <c r="H12" s="32">
         <v>6</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>354</v>
+        <v>455</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="24" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="H13" s="33">
         <v>7</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>358</v>
+        <v>489</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>526</v>
+        <v>481</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="H14" s="32">
         <v>7</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>362</v>
+        <v>456</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="24" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="H15" s="24">
         <v>7</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>366</v>
+        <v>457</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
       <c r="H16" s="32">
         <v>7</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>372</v>
+        <v>458</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>527</v>
+        <v>482</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="H17" s="24">
         <v>7</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>369</v>
+        <v>459</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="32" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="H18" s="32">
         <v>8</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>374</v>
+        <v>460</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="24" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="H19" s="24">
         <v>8</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>376</v>
+        <v>461</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="32" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="H20" s="32">
         <v>8</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
@@ -6056,99 +5989,99 @@
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>380</v>
+        <v>462</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="32" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="H22" s="32">
         <v>8</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>382</v>
+        <v>463</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="24" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="H23" s="24">
         <v>8</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>386</v>
+        <v>464</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="32" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="H24" s="32">
         <v>8</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="37"/>
@@ -6156,74 +6089,74 @@
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>389</v>
+        <v>465</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="H26" s="32">
         <v>9</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>393</v>
+        <v>466</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>528</v>
+        <v>483</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="H27" s="24">
         <v>9</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -6231,47 +6164,47 @@
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
     </row>
-    <row r="29" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>403</v>
+        <v>467</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>529</v>
+        <v>484</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="H29" s="33">
         <v>9</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>553</v>
+        <v>439</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
@@ -6279,378 +6212,378 @@
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
     </row>
-    <row r="31" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>552</v>
+        <v>438</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="24" t="s">
-        <v>545</v>
+        <v>507</v>
       </c>
       <c r="H31" s="24">
         <v>10</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="32" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="H32" s="32">
         <v>10</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="H33" s="24">
         <v>10</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>551</v>
+        <v>437</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="H34" s="32">
         <v>10</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="H35" s="24">
         <v>10</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="H36" s="32">
         <v>10</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="H37" s="24">
         <v>10</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="H38" s="32">
         <v>10</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="42" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="H39" s="24">
         <v>10</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="H40" s="32">
         <v>10</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="H41" s="24">
         <v>10</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="H42" s="32">
         <v>10</v>
       </c>
       <c r="I42" s="32" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>437</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>532</v>
+        <v>478</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>486</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="H43" s="24">
         <v>10</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
@@ -6671,25 +6604,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63585447-8EF3-4F6F-B5BC-B3B0F6A0BFCE}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.9140625" style="3"/>
+    <col min="10" max="11" width="16.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6700,7 +6633,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
@@ -6718,17 +6651,17 @@
         <v>8</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
         <v>9</v>
       </c>
@@ -6736,7 +6669,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D2" s="28">
         <v>1</v>
@@ -6757,25 +6690,25 @@
         <v>1</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D3" s="29">
         <v>0.15</v>
@@ -6792,25 +6725,25 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="26" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D4" s="28">
         <v>1</v>
@@ -6831,25 +6764,25 @@
         <v>1</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D5" s="30">
         <v>0.3</v>
@@ -6870,21 +6803,21 @@
         <v>-1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D6" s="28">
         <v>0.95</v>
@@ -6905,25 +6838,25 @@
         <v>1</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D7" s="30">
         <v>1</v>
@@ -6944,13 +6877,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="23"/>
       <c r="B8" s="25"/>
       <c r="C8" s="1"/>
@@ -6981,17 +6914,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9.58203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.9140625" style="12"/>
+    <col min="1" max="2" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="12"/>
     <col min="4" max="5" width="33.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="26.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.9140625" style="12"/>
+    <col min="9" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7002,31 +6935,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="15">
         <v>7</v>
@@ -7035,7 +6968,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="15">
         <v>0.7</v>
@@ -7045,15 +6978,15 @@
       </c>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D3" s="26">
         <v>3</v>
@@ -7062,7 +6995,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G3" s="26">
         <v>0.4</v>
@@ -7072,15 +7005,15 @@
       </c>
       <c r="I3" s="26"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D4" s="15">
         <v>0</v>
@@ -7089,7 +7022,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G4" s="15">
         <v>0.3</v>

--- a/Src/Assets/Common/Tables/Tables/Levels.xlsx
+++ b/Src/Assets/Common/Tables/Tables/Levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\CLAP开发\关卡\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CCA\Src\Assets\Common\Tables\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB90A49-B377-4ED4-94D1-9C149DA2EB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE81BD3C-5567-4C63-90A2-1247E3538DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI" sheetId="5" r:id="rId1"/>
@@ -18,21 +18,10 @@
     <sheet name="Character" sheetId="2" r:id="rId3"/>
     <sheet name="Emotion" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -42,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="547">
   <si>
     <t>Key</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,30 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial Emotional Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turn Based Change of Honesty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turn Based Change of Emotional Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage Based Change of Honesty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage Based Change of Emotional Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,22 +60,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enemy List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlocked Action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Angry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,18 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Emotional Value Lower Limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emotional Value Upper Limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action Tendency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[5,9,1,1,4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MutiProvokeCheckValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>守旧的人</t>
   </si>
   <si>
@@ -309,10 +246,6 @@
     <t>The Cathedral</t>
   </si>
   <si>
-    <t>English Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Timidity</t>
   </si>
   <si>
@@ -810,58 +743,6 @@
     <t>Arrogant</t>
   </si>
   <si>
-    <t>Initial Honesty Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emotion Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Honesty Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.9,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,0.8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3,8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.3,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.1,0.95]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.7,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Peaceful</t>
   </si>
   <si>
@@ -1454,10 +1335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Friend List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>神秘人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1508,14 +1385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Player HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player Initial Resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1,2,2]</t>
   </si>
   <si>
@@ -1538,10 +1407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AvailableAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IsFriend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1665,14 +1530,6 @@
     <t>[["#Hand-Sin#"]]</t>
   </si>
   <si>
-    <t>[["shadow"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["$shadow"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[],["Emissary of Light"]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1693,10 +1550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[["$Swordsman's Spirit,Tin Soldier"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[["#Butaro#","#Huntaro#","#Tiger#"]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1735,9 +1588,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  ["bullet","sword","stab","cleave","ghost_sever","spirit_sever","shoot","double_shoot","RPG","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","provoke"],</t>
-  </si>
-  <si>
     <t>["sword","stab","cleave","block","double_block","heavy_block","counterblade"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1920,6 +1770,134 @@
   </si>
   <si>
     <t>["block","cleave","comeon","counterblade","deflect","disarm","double_RPG","double_bullet","double_block","double_shoot","double_sword","ghost_sever","heavy_block","laser_cleave","laser_cannon","laser_shoot","laser_stab","provoke","rebounce","shoot","spectral_reflection","spirit_sever","stab","RPG"]</t>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ["bullet","sword","stab","cleave","ghost_sever","spirit_sever","shoot","double_shoot","RPG","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","provoke"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["$Swordsman's Spirit","Tin Soldier"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvailableActionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnglishName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockedAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerInitialResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmotionalValueLowerLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmotionalValueUpperLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionTendency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinHonesty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHonesty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinEmotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxEmotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IniHonesty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IniEmotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HonestyChange_TurnBased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmotionChange_TurnBased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HonestyChange_DamageBased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmotionChange_DamageBased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiProvokeCheckValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreviousLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Shadow"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["$Shadow"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[""]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["double_bullet","double_sword","stab","cleave","laser_stab","laser_cleave","ghost_sever","spirit_sever","shoot","double_shoot","laser_shoot","laser_cannon","RPG","double_RPG","block","double_block","heavy_block","deflect","rebounce","counterblade","disarm","spectral_reflection","provoke","comeon"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1929,7 +1907,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1979,8 +1957,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2009,6 +1994,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2048,7 +2039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2156,9 +2147,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2172,6 +2160,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2454,26 +2448,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259E49F2-2246-4E59-AF25-B4C5AD1F25A6}">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="I63" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="3.44140625" style="3" customWidth="1"/>
+    <col min="1" max="2" width="21.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="10.9140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" style="3"/>
-    <col min="9" max="9" width="255.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="3"/>
+    <col min="8" max="8" width="255.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2481,44 +2474,41 @@
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>3</v>
+        <v>518</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>13</v>
+        <v>540</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>440</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="I1" s="22"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-    </row>
-    <row r="2" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E2" s="32" t="b">
         <v>0</v>
@@ -2527,56 +2517,55 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>508</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="38" t="b">
+        <v>78</v>
+      </c>
+      <c r="E3" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E4" s="32" t="b">
         <v>0</v>
@@ -2585,56 +2574,55 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15" t="s">
-        <v>493</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-    </row>
-    <row r="5" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="38" t="b">
+        <v>80</v>
+      </c>
+      <c r="E5" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="3">
         <v>2</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E6" s="32" t="b">
         <v>0</v>
@@ -2643,56 +2631,55 @@
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="35" t="s">
-        <v>494</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="38" t="b">
+        <v>49</v>
+      </c>
+      <c r="E7" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="3">
         <v>3</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E8" s="32" t="b">
         <v>0</v>
@@ -2701,56 +2688,55 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
-        <v>510</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="38" t="b">
+        <v>86</v>
+      </c>
+      <c r="E9" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>3</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E10" s="32" t="b">
         <v>0</v>
@@ -2759,56 +2745,55 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="s">
-        <v>512</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="38" t="b">
+        <v>90</v>
+      </c>
+      <c r="E11" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F11" s="3">
         <v>5</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E12" s="32" t="b">
         <v>0</v>
@@ -2817,56 +2802,55 @@
         <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="35" t="s">
-        <v>511</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="38" t="b">
+        <v>95</v>
+      </c>
+      <c r="E13" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="3">
         <v>4</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E14" s="32" t="b">
         <v>0</v>
@@ -2875,56 +2859,55 @@
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15" t="s">
-        <v>444</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-    </row>
-    <row r="15" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="38" t="b">
+        <v>96</v>
+      </c>
+      <c r="E15" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>3</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E16" s="32" t="b">
         <v>0</v>
@@ -2933,56 +2916,55 @@
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="35" t="s">
-        <v>444</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="38" t="b">
+        <v>19</v>
+      </c>
+      <c r="E17" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>9</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="E18" s="32" t="b">
         <v>0</v>
@@ -2991,56 +2973,55 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15" t="s">
-        <v>513</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="38" t="b">
+        <v>98</v>
+      </c>
+      <c r="E19" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F19" s="3">
         <v>5</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>373</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E20" s="32" t="b">
         <v>0</v>
@@ -3049,56 +3030,55 @@
         <v>7</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15" t="s">
-        <v>514</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="38" t="b">
+        <v>104</v>
+      </c>
+      <c r="E21" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>4</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>374</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E22" s="32" t="b">
         <v>0</v>
@@ -3107,56 +3087,55 @@
         <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15" t="s">
-        <v>515</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-    </row>
-    <row r="23" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="38" t="b">
+        <v>106</v>
+      </c>
+      <c r="E23" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E24" s="32" t="b">
         <v>0</v>
@@ -3165,56 +3144,55 @@
         <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15" t="s">
-        <v>444</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-    </row>
-    <row r="25" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="38" t="b">
+        <v>109</v>
+      </c>
+      <c r="E25" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F25" s="3">
         <v>2</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E26" s="32" t="b">
         <v>0</v>
@@ -3223,56 +3201,55 @@
         <v>5</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15" t="s">
-        <v>516</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-    </row>
-    <row r="27" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="38" t="b">
+        <v>113</v>
+      </c>
+      <c r="E27" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>11</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E28" s="32" t="b">
         <v>0</v>
@@ -3281,56 +3258,55 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="35" t="s">
-        <v>444</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-    </row>
-    <row r="29" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="38" t="b">
+        <v>117</v>
+      </c>
+      <c r="E29" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>3</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E30" s="32" t="b">
         <v>0</v>
@@ -3339,56 +3315,55 @@
         <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15" t="s">
-        <v>514</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="I30" s="15"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-    </row>
-    <row r="31" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="38" t="b">
+        <v>120</v>
+      </c>
+      <c r="E31" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F31" s="3">
         <v>5</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E32" s="32" t="b">
         <v>0</v>
@@ -3397,56 +3372,55 @@
         <v>3</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15" t="s">
-        <v>518</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="I32" s="15"/>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="38" t="b">
+        <v>124</v>
+      </c>
+      <c r="E33" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>6</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E34" s="32" t="b">
         <v>0</v>
@@ -3455,56 +3429,55 @@
         <v>4</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15" t="s">
-        <v>519</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-    </row>
-    <row r="35" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" s="38" t="b">
+        <v>128</v>
+      </c>
+      <c r="E35" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>12</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E36" s="32" t="b">
         <v>0</v>
@@ -3513,56 +3486,55 @@
         <v>4</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="35" t="s">
-        <v>520</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-    </row>
-    <row r="37" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="38" t="b">
+        <v>130</v>
+      </c>
+      <c r="E37" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F37" s="3">
         <v>5</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E38" s="32" t="b">
         <v>0</v>
@@ -3571,56 +3543,55 @@
         <v>4</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="35" t="s">
-        <v>520</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-    </row>
-    <row r="39" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="E39" s="38" t="b">
+        <v>239</v>
+      </c>
+      <c r="E39" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F39" s="3">
         <v>7</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>373</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E40" s="32" t="b">
         <v>0</v>
@@ -3629,56 +3600,55 @@
         <v>8</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15" t="s">
-        <v>522</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-    </row>
-    <row r="41" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" s="38" t="b">
+        <v>134</v>
+      </c>
+      <c r="E41" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>4</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>396</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E42" s="32" t="b">
         <v>0</v>
@@ -3687,56 +3657,55 @@
         <v>4</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15" t="s">
-        <v>521</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="I42" s="15"/>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-    </row>
-    <row r="43" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="38" t="b">
+        <v>136</v>
+      </c>
+      <c r="E43" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>6</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E44" s="32" t="b">
         <v>0</v>
@@ -3745,56 +3714,55 @@
         <v>5</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="35" t="s">
-        <v>520</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="I44" s="15"/>
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-    </row>
-    <row r="45" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E45" s="38" t="b">
+        <v>138</v>
+      </c>
+      <c r="E45" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>12</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E46" s="32" t="b">
         <v>0</v>
@@ -3803,56 +3771,55 @@
         <v>5</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15" t="s">
-        <v>520</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="I46" s="15"/>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-    </row>
-    <row r="47" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="E47" s="38" t="b">
+        <v>140</v>
+      </c>
+      <c r="E47" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>3</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E48" s="32" t="b">
         <v>0</v>
@@ -3861,56 +3828,55 @@
         <v>5</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15" t="s">
-        <v>521</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="I48" s="15"/>
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-    </row>
-    <row r="49" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="E49" s="38" t="b">
+        <v>339</v>
+      </c>
+      <c r="E49" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>5</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E50" s="32" t="b">
         <v>0</v>
@@ -3919,56 +3885,55 @@
         <v>13</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15" t="s">
-        <v>520</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="I50" s="15"/>
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-    </row>
-    <row r="51" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="E51" s="38" t="b">
+        <v>342</v>
+      </c>
+      <c r="E51" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F51" s="3">
         <v>14</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>381</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="E52" s="32" t="b">
         <v>0</v>
@@ -3977,56 +3942,55 @@
         <v>7</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15" t="s">
-        <v>521</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="I52" s="15"/>
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-    </row>
-    <row r="53" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53" s="38" t="b">
+        <v>141</v>
+      </c>
+      <c r="E53" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F53" s="3">
         <v>10</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E54" s="32" t="b">
         <v>0</v>
@@ -4035,56 +3999,55 @@
         <v>7</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15" t="s">
-        <v>525</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="I54" s="15"/>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-    </row>
-    <row r="55" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E55" s="38" t="b">
+        <v>143</v>
+      </c>
+      <c r="E55" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F55" s="3">
         <v>6</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E56" s="32" t="b">
         <v>0</v>
@@ -4093,56 +4056,55 @@
         <v>4</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="35" t="s">
-        <v>521</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="I56" s="15"/>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-    </row>
-    <row r="57" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" s="38" t="b">
+        <v>83</v>
+      </c>
+      <c r="E57" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>4</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E58" s="32" t="b">
         <v>0</v>
@@ -4151,56 +4113,55 @@
         <v>4</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="35" t="s">
-        <v>522</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="I58" s="15"/>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-    </row>
-    <row r="59" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="E59" s="38" t="b">
+        <v>144</v>
+      </c>
+      <c r="E59" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>4</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E60" s="32" t="b">
         <v>0</v>
@@ -4209,56 +4170,55 @@
         <v>3</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15" t="s">
-        <v>520</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="I60" s="15"/>
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-    </row>
-    <row r="61" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E61" s="38" t="b">
+        <v>98</v>
+      </c>
+      <c r="E61" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>4</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>384</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E62" s="32" t="b">
         <v>0</v>
@@ -4267,56 +4227,55 @@
         <v>6</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="35" t="s">
-        <v>522</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="H62" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="I62" s="15"/>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-    </row>
-    <row r="63" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E63" s="38" t="b">
+        <v>129</v>
+      </c>
+      <c r="E63" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F63" s="3">
         <v>6</v>
       </c>
       <c r="G63" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E64" s="32" t="b">
         <v>0</v>
@@ -4325,56 +4284,55 @@
         <v>4</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="35" t="s">
-        <v>522</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="H64" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="I64" s="15"/>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-    </row>
-    <row r="65" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E65" s="38" t="b">
+        <v>108</v>
+      </c>
+      <c r="E65" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F65" s="3">
         <v>3</v>
       </c>
       <c r="G65" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
-        <v>529</v>
+        <v>494</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>529</v>
+        <v>494</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E66" s="32" t="b">
         <v>0</v>
@@ -4383,56 +4341,55 @@
         <v>3</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="35" t="s">
-        <v>528</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="I66" s="15"/>
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-    </row>
-    <row r="67" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E67" s="38" t="b">
+        <v>124</v>
+      </c>
+      <c r="E67" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F67" s="3">
         <v>5</v>
       </c>
       <c r="G67" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E68" s="32" t="b">
         <v>0</v>
@@ -4441,56 +4398,55 @@
         <v>3</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15" t="s">
-        <v>520</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="I68" s="15"/>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-    </row>
-    <row r="69" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E69" s="38" t="b">
+        <v>148</v>
+      </c>
+      <c r="E69" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F69" s="3">
         <v>4</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E70" s="32" t="b">
         <v>0</v>
@@ -4499,56 +4455,55 @@
         <v>5</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="35" t="s">
-        <v>526</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="H70" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="I70" s="15"/>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-    </row>
-    <row r="71" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E71" s="38" t="b">
+        <v>149</v>
+      </c>
+      <c r="E71" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F71" s="3">
         <v>8</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>389</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E72" s="32" t="b">
         <v>0</v>
@@ -4557,56 +4512,55 @@
         <v>5</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="35" t="s">
-        <v>522</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="H72" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="I72" s="15"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-    </row>
-    <row r="73" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E73" s="38" t="b">
+        <v>113</v>
+      </c>
+      <c r="E73" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F73" s="3">
         <v>3</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E74" s="32" t="b">
         <v>0</v>
@@ -4615,32 +4569,31 @@
         <v>15</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="35" t="s">
-        <v>526</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="H74" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="I74" s="15"/>
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
       <c r="L74" s="15"/>
       <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-    </row>
-    <row r="75" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E75" s="38" t="b">
+        <v>73</v>
+      </c>
+      <c r="E75" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F75" s="3">
@@ -4648,24 +4601,24 @@
         <v>5</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>532</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>497</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E76" s="32" t="b">
         <v>0</v>
@@ -4675,32 +4628,31 @@
         <v>5</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15" t="s">
-        <v>522</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="I76" s="15"/>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
       <c r="L76" s="15"/>
       <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-    </row>
-    <row r="77" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E77" s="38" t="b">
+        <v>90</v>
+      </c>
+      <c r="E77" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F77" s="3">
@@ -4708,24 +4660,24 @@
         <v>5</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>534</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E78" s="32" t="b">
         <v>0</v>
@@ -4735,32 +4687,31 @@
         <v>5</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15" t="s">
-        <v>520</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="I78" s="15"/>
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
       <c r="L78" s="15"/>
       <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-    </row>
-    <row r="79" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E79" s="38" t="b">
+        <v>94</v>
+      </c>
+      <c r="E79" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F79" s="3">
@@ -4768,24 +4719,24 @@
         <v>4</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>536</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>501</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E80" s="32" t="b">
         <v>0</v>
@@ -4795,32 +4746,31 @@
         <v>5</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15" t="s">
-        <v>522</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="I80" s="15"/>
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
       <c r="L80" s="15"/>
       <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-    </row>
-    <row r="81" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E81" s="38" t="b">
+        <v>109</v>
+      </c>
+      <c r="E81" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F81" s="3">
@@ -4828,24 +4778,24 @@
         <v>8</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>531</v>
+        <v>496</v>
       </c>
       <c r="E82" s="32" t="b">
         <v>0</v>
@@ -4855,32 +4805,31 @@
         <v>8</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15" t="s">
-        <v>520</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="I82" s="15"/>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
       <c r="L82" s="15"/>
       <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-    </row>
-    <row r="83" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E83" s="38" t="b">
+        <v>130</v>
+      </c>
+      <c r="E83" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F83" s="3">
@@ -4888,24 +4837,24 @@
         <v>5</v>
       </c>
       <c r="G83" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>504</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E84" s="32" t="b">
         <v>0</v>
@@ -4915,32 +4864,31 @@
         <v>4</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15" t="s">
-        <v>520</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="I84" s="15"/>
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
       <c r="L84" s="15"/>
       <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-    </row>
-    <row r="85" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>530</v>
+        <v>495</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>530</v>
+        <v>495</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E85" s="38" t="b">
+        <v>104</v>
+      </c>
+      <c r="E85" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F85" s="3">
@@ -4948,24 +4896,24 @@
         <v>4</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>506</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E86" s="32" t="b">
         <v>0</v>
@@ -4975,32 +4923,31 @@
         <v>7</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15" t="s">
-        <v>520</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="I86" s="15"/>
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-    </row>
-    <row r="87" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E87" s="38" t="b">
+        <v>126</v>
+      </c>
+      <c r="E87" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F87" s="3">
@@ -5008,24 +4955,24 @@
         <v>4</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>503</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E88" s="32" t="b">
         <v>0</v>
@@ -5035,32 +4982,31 @@
         <v>5</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15" t="s">
-        <v>521</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="I88" s="15"/>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-    </row>
-    <row r="89" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E89" s="38" t="b">
+        <v>133</v>
+      </c>
+      <c r="E89" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F89" s="3">
@@ -5068,24 +5014,24 @@
         <v>7</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>509</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E90" s="32" t="b">
         <v>0</v>
@@ -5095,32 +5041,31 @@
         <v>10</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15" t="s">
-        <v>520</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="H90" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="I90" s="15"/>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
       <c r="L90" s="15"/>
       <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-    </row>
-    <row r="91" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E91" s="38" t="b">
+        <v>150</v>
+      </c>
+      <c r="E91" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F91" s="3">
@@ -5128,24 +5073,24 @@
         <v>7</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>546</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>511</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E92" s="32" t="b">
         <v>0</v>
@@ -5155,32 +5100,31 @@
         <v>4</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15" t="s">
-        <v>525</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="I92" s="15"/>
       <c r="J92" s="15"/>
       <c r="K92" s="15"/>
       <c r="L92" s="15"/>
       <c r="M92" s="15"/>
-      <c r="N92" s="15"/>
-    </row>
-    <row r="93" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E93" s="38" t="b">
+        <v>152</v>
+      </c>
+      <c r="E93" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F93" s="3">
@@ -5188,24 +5132,24 @@
         <v>20</v>
       </c>
       <c r="G93" s="31" t="s">
-        <v>548</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>513</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="B94" s="32" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="E94" s="32" t="b">
         <v>1</v>
@@ -5214,61 +5158,55 @@
         <v>2</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="H94" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94" s="32" t="s">
-        <v>493</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="I94" s="15"/>
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
       <c r="L94" s="15"/>
       <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
-    </row>
-    <row r="95" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="24" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="E95" s="38" t="b">
+        <v>391</v>
+      </c>
+      <c r="E95" s="37" t="b">
         <v>1</v>
       </c>
       <c r="F95" s="24">
         <v>2</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="I95" s="24" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="B96" s="32" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="E96" s="32" t="b">
         <v>1</v>
@@ -5277,54 +5215,48 @@
         <v>5</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="H96" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="I96" s="32" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="24" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="E97" s="38" t="b">
+        <v>394</v>
+      </c>
+      <c r="E97" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="F97" s="39"/>
+      <c r="F97" s="38"/>
       <c r="G97" s="24" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H97" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I97" s="24" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B98" s="32" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="E98" s="32" t="b">
         <v>1</v>
@@ -5333,56 +5265,50 @@
         <v>6</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="H98" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="I98" s="32" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="24" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E99" s="38" t="b">
+        <v>49</v>
+      </c>
+      <c r="E99" s="37" t="b">
         <v>1</v>
       </c>
       <c r="F99" s="24">
         <v>8</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="I99" s="24" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="E100" s="32" t="b">
         <v>1</v>
@@ -5391,13 +5317,10 @@
         <v>6</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="H100" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="I100" s="32" t="s">
-        <v>527</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -5409,26 +5332,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084DBB7A-B5EB-40AD-BCD5-5AECD2B1DA93}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.5546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="103.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.58203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="103.9140625" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.77734375" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="24"/>
+    <col min="10" max="10" width="17.1640625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="8.9140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="41" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="40" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -5436,1154 +5361,1572 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>15</v>
+        <v>521</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>418</v>
+        <v>522</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>16</v>
+        <v>523</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>432</v>
+        <v>524</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="F2" s="32"/>
+        <v>414</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>515</v>
+      </c>
       <c r="G2" s="32" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H2" s="32">
         <v>5</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="J2" s="32" t="str">
+        <f>A3</f>
+        <v>1-2</v>
+      </c>
+      <c r="K2" s="42"/>
+    </row>
+    <row r="3" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="F3" s="33"/>
+        <v>415</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>515</v>
+      </c>
       <c r="G3" s="33" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="H3" s="33">
         <v>5</v>
       </c>
-      <c r="I3" s="38" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" s="33" t="str">
+        <f t="shared" ref="J3:J42" si="0">A4</f>
+        <v>1-3</v>
+      </c>
+      <c r="K3" s="33" t="str">
+        <f>B2</f>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="H4" s="32">
         <v>5</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>269</v>
+        <v>241</v>
+      </c>
+      <c r="J4" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4</v>
+      </c>
+      <c r="K4" s="32" t="str">
+        <f t="shared" ref="K4:K42" si="1">B3</f>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>242</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="F5" s="33"/>
+        <v>417</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>515</v>
+      </c>
       <c r="G5" s="33" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="H5" s="33">
         <v>5</v>
       </c>
-      <c r="I5" s="38" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="J5" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5</v>
+      </c>
+      <c r="K5" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>1-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+        <v>16</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>515</v>
+      </c>
       <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>271</v>
+      <c r="I6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>1-6</v>
+      </c>
+      <c r="K6" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>1-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>244</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="F7" s="36"/>
+        <v>418</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>515</v>
+      </c>
       <c r="G7" s="24" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="H7" s="24">
         <v>5</v>
       </c>
-      <c r="I7" s="38" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="J7" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>1-7</v>
+      </c>
+      <c r="K7" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>1-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>450</v>
-      </c>
-      <c r="F8" s="32"/>
+        <v>419</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>515</v>
+      </c>
       <c r="G8" s="32" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="H8" s="32">
         <v>6</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>273</v>
+        <v>369</v>
+      </c>
+      <c r="J8" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>2-1</v>
+      </c>
+      <c r="K8" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>1-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>246</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="F9" s="36"/>
+        <v>420</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>515</v>
+      </c>
       <c r="G9" s="24" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="H9" s="24">
         <v>6</v>
       </c>
-      <c r="I9" s="38" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>2-2</v>
+      </c>
+      <c r="K9" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>1-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="H10" s="32">
         <v>6</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>275</v>
+        <v>370</v>
+      </c>
+      <c r="J10" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>2-3</v>
+      </c>
+      <c r="K10" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>248</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="F11" s="36"/>
+        <v>422</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>515</v>
+      </c>
       <c r="G11" s="24" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="H11" s="24">
         <v>6</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2-4</v>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="F12" s="32"/>
+        <v>423</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>515</v>
+      </c>
       <c r="G12" s="32" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="H12" s="32">
         <v>6</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>277</v>
+        <v>368</v>
+      </c>
+      <c r="J12" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>2-5</v>
+      </c>
+      <c r="K12" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>2-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>250</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="F13" s="33"/>
+        <v>424</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>515</v>
+      </c>
       <c r="G13" s="24" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="H13" s="33">
         <v>7</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="J13" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>2-6</v>
+      </c>
+      <c r="K13" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>2-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="H14" s="32">
         <v>7</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>291</v>
+        <v>373</v>
+      </c>
+      <c r="J14" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>2-7</v>
+      </c>
+      <c r="K14" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>2-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>264</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="F15" s="36"/>
+        <v>425</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>515</v>
+      </c>
       <c r="G15" s="24" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="H15" s="24">
         <v>7</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="J15" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2-8</v>
+      </c>
+      <c r="K15" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>457</v>
-      </c>
-      <c r="F16" s="32"/>
+        <v>426</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>515</v>
+      </c>
       <c r="G16" s="32" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="H16" s="32">
         <v>7</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>293</v>
+        <v>386</v>
+      </c>
+      <c r="J16" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>2-9</v>
+      </c>
+      <c r="K16" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>2-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>266</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="H17" s="24">
         <v>7</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="J17" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>3-1</v>
+      </c>
+      <c r="K17" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="F18" s="32"/>
+        <v>428</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>515</v>
+      </c>
       <c r="G18" s="32" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="H18" s="32">
         <v>8</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>279</v>
+        <v>379</v>
+      </c>
+      <c r="J18" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>3-2</v>
+      </c>
+      <c r="K18" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>2-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>252</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>460</v>
-      </c>
-      <c r="F19" s="36"/>
+        <v>429</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>515</v>
+      </c>
       <c r="G19" s="24" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="H19" s="24">
         <v>8</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="J19" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>3-3</v>
+      </c>
+      <c r="K19" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>3-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="F20" s="32"/>
+        <v>430</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>515</v>
+      </c>
       <c r="G20" s="32" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="H20" s="32">
         <v>8</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>281</v>
+        <v>379</v>
+      </c>
+      <c r="J20" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>3-4</v>
+      </c>
+      <c r="K20" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>3-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>254</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+        <v>27</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>515</v>
+      </c>
       <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>3-5</v>
+      </c>
+      <c r="K21" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>3-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>462</v>
-      </c>
-      <c r="F22" s="32"/>
+        <v>431</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>515</v>
+      </c>
       <c r="G22" s="32" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="H22" s="32">
         <v>8</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>283</v>
+        <v>379</v>
+      </c>
+      <c r="J22" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>3-6</v>
+      </c>
+      <c r="K22" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>3-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>256</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="F23" s="36"/>
+        <v>432</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>515</v>
+      </c>
       <c r="G23" s="24" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="H23" s="24">
         <v>8</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="J23" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>3-7</v>
+      </c>
+      <c r="K23" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>3-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F24" s="32"/>
+        <v>433</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>515</v>
+      </c>
       <c r="G24" s="32" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="H24" s="32">
         <v>8</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>285</v>
+        <v>379</v>
+      </c>
+      <c r="J24" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>3-8</v>
+      </c>
+      <c r="K24" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>3-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>258</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="34"/>
+        <v>28</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>515</v>
+      </c>
       <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-    </row>
-    <row r="26" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>3-9</v>
+      </c>
+      <c r="K25" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>3-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="F26" s="32"/>
+        <v>434</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>515</v>
+      </c>
       <c r="G26" s="32" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="H26" s="32">
         <v>9</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>287</v>
+        <v>379</v>
+      </c>
+      <c r="J26" s="32" t="str">
+        <f>A27</f>
+        <v>3-10</v>
+      </c>
+      <c r="K26" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>3-8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>260</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="H27" s="24">
         <v>9</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="J27" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>3-11</v>
+      </c>
+      <c r="K27" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>3-9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+        <v>31</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>515</v>
+      </c>
       <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-    </row>
-    <row r="29" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>289</v>
+      <c r="I28" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>3-12</v>
+      </c>
+      <c r="K28" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>3-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>262</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="H29" s="33">
         <v>9</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="J29" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>4-1</v>
+      </c>
+      <c r="K29" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>3-11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
+        <v>297</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>515</v>
+      </c>
       <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-    </row>
-    <row r="31" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>295</v>
+      <c r="I30" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>4-2</v>
+      </c>
+      <c r="K30" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>3-12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>268</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>468</v>
-      </c>
-      <c r="F31" s="36"/>
+        <v>437</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>515</v>
+      </c>
       <c r="G31" s="24" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="H31" s="24">
         <v>10</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="J31" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>4-3A</v>
+      </c>
+      <c r="K31" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>4-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>469</v>
-      </c>
-      <c r="F32" s="32"/>
+        <v>438</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>515</v>
+      </c>
       <c r="G32" s="32" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="H32" s="32">
         <v>10</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>297</v>
+        <v>406</v>
+      </c>
+      <c r="J32" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>4-4A</v>
+      </c>
+      <c r="K32" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>4-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>270</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="H33" s="24">
         <v>10</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="J33" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>4-5A</v>
+      </c>
+      <c r="K33" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>4-3A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="H34" s="32">
         <v>10</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>299</v>
+        <v>405</v>
+      </c>
+      <c r="J34" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>4-6A</v>
+      </c>
+      <c r="K34" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>4-4A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>272</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="H35" s="24">
         <v>10</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="J35" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>4-7A</v>
+      </c>
+      <c r="K35" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>4-5A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E36" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="G36" s="32" t="s">
         <v>472</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>507</v>
       </c>
       <c r="H36" s="32">
         <v>10</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>301</v>
+        <v>405</v>
+      </c>
+      <c r="J36" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>4-8A</v>
+      </c>
+      <c r="K36" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>4-6A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>274</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="H37" s="24">
         <v>10</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="J37" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>4-3B</v>
+      </c>
+      <c r="K37" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>4-7A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>474</v>
-      </c>
-      <c r="F38" s="32"/>
+        <v>443</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>515</v>
+      </c>
       <c r="G38" s="32" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="H38" s="32">
         <v>10</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>303</v>
+        <v>405</v>
+      </c>
+      <c r="J38" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>4-4B</v>
+      </c>
+      <c r="K38" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>4-8A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>276</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="H39" s="24">
         <v>10</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="J39" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>4-5B</v>
+      </c>
+      <c r="K39" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>4-3B</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="H40" s="32">
         <v>10</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>305</v>
+        <v>405</v>
+      </c>
+      <c r="J40" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>4-6B</v>
+      </c>
+      <c r="K40" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>4-4B</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>278</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="H41" s="24">
         <v>10</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="J41" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>4-7B</v>
+      </c>
+      <c r="K41" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>4-5B</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="H42" s="32">
         <v>10</v>
       </c>
       <c r="I42" s="32" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>307</v>
+        <v>405</v>
+      </c>
+      <c r="J42" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>4-8B</v>
+      </c>
+      <c r="K42" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>4-6B</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>280</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="H43" s="24">
         <v>10</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="J43" s="43"/>
+      <c r="K43" s="24" t="str">
+        <f>B42</f>
+        <v>4-7B</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
@@ -6597,6 +6940,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6604,25 +6948,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63585447-8EF3-4F6F-B5BC-B3B0F6A0BFCE}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.9140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="17" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.08203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.9140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6633,43 +6980,47 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>241</v>
+        <v>533</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>4</v>
+        <v>534</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>5</v>
+        <v>535</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>6</v>
+        <v>536</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>7</v>
+        <v>537</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>8</v>
+        <v>538</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>243</v>
+        <v>530</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+        <v>529</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>531</v>
+      </c>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D2" s="28">
         <v>1</v>
@@ -6680,35 +7031,39 @@
       <c r="F2" s="28">
         <v>0</v>
       </c>
-      <c r="G2" s="28">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15">
+      <c r="G2" s="35">
+        <v>0</v>
+      </c>
+      <c r="H2" s="28">
         <v>0</v>
       </c>
       <c r="I2" s="28">
         <v>1</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="J2" s="35">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="L2" s="35">
+        <v>10</v>
+      </c>
+      <c r="M2" s="15">
+        <v>0</v>
+      </c>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D3" s="29">
         <v>0.15</v>
@@ -6719,31 +7074,35 @@
       <c r="F3" s="29">
         <v>0.1</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="39"/>
+      <c r="H3" s="29">
         <v>0.1</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="26">
+        <v>0</v>
+      </c>
+      <c r="L3" s="26">
+        <v>8</v>
+      </c>
+      <c r="M3" s="26">
+        <v>1</v>
+      </c>
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D4" s="28">
         <v>1</v>
@@ -6755,34 +7114,38 @@
         <v>0</v>
       </c>
       <c r="G4" s="28">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="28">
         <v>-0.1</v>
-      </c>
-      <c r="H4" s="28">
-        <v>-1</v>
       </c>
       <c r="I4" s="28">
         <v>1</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="J4" s="35">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="L4" s="35">
+        <v>8</v>
+      </c>
+      <c r="M4" s="15">
+        <v>3</v>
+      </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D5" s="30">
         <v>0.3</v>
@@ -6794,30 +7157,36 @@
         <v>0</v>
       </c>
       <c r="G5" s="30">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
         <v>0.2</v>
-      </c>
-      <c r="H5" s="30">
-        <v>0</v>
       </c>
       <c r="I5" s="30">
         <v>-1</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="L5" s="3">
+        <v>6</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D6" s="28">
         <v>0.95</v>
@@ -6829,34 +7198,38 @@
         <v>0</v>
       </c>
       <c r="G6" s="28">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28">
         <v>-0.1</v>
-      </c>
-      <c r="H6" s="28">
-        <v>1</v>
       </c>
       <c r="I6" s="28">
         <v>1</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="J6" s="35">
+        <v>0.95</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="35">
+        <v>10</v>
+      </c>
+      <c r="M6" s="15">
+        <v>3</v>
+      </c>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D7" s="30">
         <v>1</v>
@@ -6868,22 +7241,28 @@
         <v>0</v>
       </c>
       <c r="G7" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="30">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="30">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K7" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L7" s="3">
+        <v>10</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="25"/>
       <c r="C8" s="1"/>
@@ -6903,6 +7282,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6911,20 +7291,21 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="12"/>
-    <col min="4" max="5" width="33.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.58203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.9140625" style="12"/>
+    <col min="4" max="4" width="30" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="26.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="12"/>
+    <col min="9" max="16384" width="8.9140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6935,40 +7316,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>19</v>
+        <v>526</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>20</v>
+        <v>527</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>21</v>
+        <v>528</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>24</v>
+        <v>539</v>
       </c>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="15">
+        <v>9</v>
+      </c>
+      <c r="D2" s="32">
         <v>7</v>
       </c>
       <c r="E2" s="15">
+        <v>100</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="G2" s="15">
         <v>0.7</v>
@@ -6978,24 +7359,24 @@
       </c>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" s="26">
+        <v>229</v>
+      </c>
+      <c r="D3" s="33">
         <v>3</v>
       </c>
       <c r="E3" s="26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="G3" s="26">
         <v>0.4</v>
@@ -7005,24 +7386,24 @@
       </c>
       <c r="I3" s="26"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D4" s="15">
+        <v>230</v>
+      </c>
+      <c r="D4" s="32">
         <v>0</v>
       </c>
       <c r="E4" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="G4" s="15">
         <v>0.3</v>
